--- a/thermax_backend/templates/lpbs_specification_template.xlsx
+++ b/thermax_backend/templates/lpbs_specification_template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99A44D9-974D-4668-A10D-2CE461B03738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E183453C-425B-4017-845E-0091E012D17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="700" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="700" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="12" r:id="rId1"/>
@@ -40,28 +40,6 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="240">
   <si>
@@ -901,7 +879,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,14 +938,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1918,7 +1888,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1956,13 +1926,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1977,64 +1941,64 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2062,19 +2026,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2092,7 +2056,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2110,9 +2074,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2143,13 +2104,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2173,13 +2134,13 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2272,34 +2233,34 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2317,10 +2278,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2332,91 +2293,91 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2461,10 +2422,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2482,13 +2443,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2500,13 +2461,13 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2563,13 +2524,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2650,17 +2611,7 @@
     <cellStyle name="Normal 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2770,71 +2721,51 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1687286</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>145143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3363772</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1313603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9780EF81-FD95-8883-B324-A6D7C6A6F0C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4363357" y="145143"/>
+          <a:ext cx="1676486" cy="1168460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3106,1042 +3037,1040 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="60.54296875" style="21" customWidth="1"/>
-    <col min="5" max="6" width="15" style="21" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="4.81640625" style="21" customWidth="1"/>
-    <col min="9" max="31" width="9.1796875" style="21"/>
-    <col min="32" max="82" width="10.26953125" style="21" hidden="1" customWidth="1"/>
-    <col min="83" max="256" width="9.1796875" style="21"/>
-    <col min="257" max="257" width="4.54296875" style="21" customWidth="1"/>
-    <col min="258" max="258" width="16.453125" style="21" customWidth="1"/>
-    <col min="259" max="259" width="17.26953125" style="21" customWidth="1"/>
-    <col min="260" max="260" width="60.54296875" style="21" customWidth="1"/>
-    <col min="261" max="262" width="15" style="21" customWidth="1"/>
-    <col min="263" max="263" width="12.7265625" style="21" customWidth="1"/>
-    <col min="264" max="264" width="4.81640625" style="21" customWidth="1"/>
-    <col min="265" max="287" width="9.1796875" style="21"/>
-    <col min="288" max="338" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="339" max="512" width="9.1796875" style="21"/>
-    <col min="513" max="513" width="4.54296875" style="21" customWidth="1"/>
-    <col min="514" max="514" width="16.453125" style="21" customWidth="1"/>
-    <col min="515" max="515" width="17.26953125" style="21" customWidth="1"/>
-    <col min="516" max="516" width="60.54296875" style="21" customWidth="1"/>
-    <col min="517" max="518" width="15" style="21" customWidth="1"/>
-    <col min="519" max="519" width="12.7265625" style="21" customWidth="1"/>
-    <col min="520" max="520" width="4.81640625" style="21" customWidth="1"/>
-    <col min="521" max="543" width="9.1796875" style="21"/>
-    <col min="544" max="594" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="595" max="768" width="9.1796875" style="21"/>
-    <col min="769" max="769" width="4.54296875" style="21" customWidth="1"/>
-    <col min="770" max="770" width="16.453125" style="21" customWidth="1"/>
-    <col min="771" max="771" width="17.26953125" style="21" customWidth="1"/>
-    <col min="772" max="772" width="60.54296875" style="21" customWidth="1"/>
-    <col min="773" max="774" width="15" style="21" customWidth="1"/>
-    <col min="775" max="775" width="12.7265625" style="21" customWidth="1"/>
-    <col min="776" max="776" width="4.81640625" style="21" customWidth="1"/>
-    <col min="777" max="799" width="9.1796875" style="21"/>
-    <col min="800" max="850" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="851" max="1024" width="9.1796875" style="21"/>
-    <col min="1025" max="1025" width="4.54296875" style="21" customWidth="1"/>
-    <col min="1026" max="1026" width="16.453125" style="21" customWidth="1"/>
-    <col min="1027" max="1027" width="17.26953125" style="21" customWidth="1"/>
-    <col min="1028" max="1028" width="60.54296875" style="21" customWidth="1"/>
-    <col min="1029" max="1030" width="15" style="21" customWidth="1"/>
-    <col min="1031" max="1031" width="12.7265625" style="21" customWidth="1"/>
-    <col min="1032" max="1032" width="4.81640625" style="21" customWidth="1"/>
-    <col min="1033" max="1055" width="9.1796875" style="21"/>
-    <col min="1056" max="1106" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="1107" max="1280" width="9.1796875" style="21"/>
-    <col min="1281" max="1281" width="4.54296875" style="21" customWidth="1"/>
-    <col min="1282" max="1282" width="16.453125" style="21" customWidth="1"/>
-    <col min="1283" max="1283" width="17.26953125" style="21" customWidth="1"/>
-    <col min="1284" max="1284" width="60.54296875" style="21" customWidth="1"/>
-    <col min="1285" max="1286" width="15" style="21" customWidth="1"/>
-    <col min="1287" max="1287" width="12.7265625" style="21" customWidth="1"/>
-    <col min="1288" max="1288" width="4.81640625" style="21" customWidth="1"/>
-    <col min="1289" max="1311" width="9.1796875" style="21"/>
-    <col min="1312" max="1362" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="1363" max="1536" width="9.1796875" style="21"/>
-    <col min="1537" max="1537" width="4.54296875" style="21" customWidth="1"/>
-    <col min="1538" max="1538" width="16.453125" style="21" customWidth="1"/>
-    <col min="1539" max="1539" width="17.26953125" style="21" customWidth="1"/>
-    <col min="1540" max="1540" width="60.54296875" style="21" customWidth="1"/>
-    <col min="1541" max="1542" width="15" style="21" customWidth="1"/>
-    <col min="1543" max="1543" width="12.7265625" style="21" customWidth="1"/>
-    <col min="1544" max="1544" width="4.81640625" style="21" customWidth="1"/>
-    <col min="1545" max="1567" width="9.1796875" style="21"/>
-    <col min="1568" max="1618" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="1619" max="1792" width="9.1796875" style="21"/>
-    <col min="1793" max="1793" width="4.54296875" style="21" customWidth="1"/>
-    <col min="1794" max="1794" width="16.453125" style="21" customWidth="1"/>
-    <col min="1795" max="1795" width="17.26953125" style="21" customWidth="1"/>
-    <col min="1796" max="1796" width="60.54296875" style="21" customWidth="1"/>
-    <col min="1797" max="1798" width="15" style="21" customWidth="1"/>
-    <col min="1799" max="1799" width="12.7265625" style="21" customWidth="1"/>
-    <col min="1800" max="1800" width="4.81640625" style="21" customWidth="1"/>
-    <col min="1801" max="1823" width="9.1796875" style="21"/>
-    <col min="1824" max="1874" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="1875" max="2048" width="9.1796875" style="21"/>
-    <col min="2049" max="2049" width="4.54296875" style="21" customWidth="1"/>
-    <col min="2050" max="2050" width="16.453125" style="21" customWidth="1"/>
-    <col min="2051" max="2051" width="17.26953125" style="21" customWidth="1"/>
-    <col min="2052" max="2052" width="60.54296875" style="21" customWidth="1"/>
-    <col min="2053" max="2054" width="15" style="21" customWidth="1"/>
-    <col min="2055" max="2055" width="12.7265625" style="21" customWidth="1"/>
-    <col min="2056" max="2056" width="4.81640625" style="21" customWidth="1"/>
-    <col min="2057" max="2079" width="9.1796875" style="21"/>
-    <col min="2080" max="2130" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="2131" max="2304" width="9.1796875" style="21"/>
-    <col min="2305" max="2305" width="4.54296875" style="21" customWidth="1"/>
-    <col min="2306" max="2306" width="16.453125" style="21" customWidth="1"/>
-    <col min="2307" max="2307" width="17.26953125" style="21" customWidth="1"/>
-    <col min="2308" max="2308" width="60.54296875" style="21" customWidth="1"/>
-    <col min="2309" max="2310" width="15" style="21" customWidth="1"/>
-    <col min="2311" max="2311" width="12.7265625" style="21" customWidth="1"/>
-    <col min="2312" max="2312" width="4.81640625" style="21" customWidth="1"/>
-    <col min="2313" max="2335" width="9.1796875" style="21"/>
-    <col min="2336" max="2386" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="2387" max="2560" width="9.1796875" style="21"/>
-    <col min="2561" max="2561" width="4.54296875" style="21" customWidth="1"/>
-    <col min="2562" max="2562" width="16.453125" style="21" customWidth="1"/>
-    <col min="2563" max="2563" width="17.26953125" style="21" customWidth="1"/>
-    <col min="2564" max="2564" width="60.54296875" style="21" customWidth="1"/>
-    <col min="2565" max="2566" width="15" style="21" customWidth="1"/>
-    <col min="2567" max="2567" width="12.7265625" style="21" customWidth="1"/>
-    <col min="2568" max="2568" width="4.81640625" style="21" customWidth="1"/>
-    <col min="2569" max="2591" width="9.1796875" style="21"/>
-    <col min="2592" max="2642" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="2643" max="2816" width="9.1796875" style="21"/>
-    <col min="2817" max="2817" width="4.54296875" style="21" customWidth="1"/>
-    <col min="2818" max="2818" width="16.453125" style="21" customWidth="1"/>
-    <col min="2819" max="2819" width="17.26953125" style="21" customWidth="1"/>
-    <col min="2820" max="2820" width="60.54296875" style="21" customWidth="1"/>
-    <col min="2821" max="2822" width="15" style="21" customWidth="1"/>
-    <col min="2823" max="2823" width="12.7265625" style="21" customWidth="1"/>
-    <col min="2824" max="2824" width="4.81640625" style="21" customWidth="1"/>
-    <col min="2825" max="2847" width="9.1796875" style="21"/>
-    <col min="2848" max="2898" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="2899" max="3072" width="9.1796875" style="21"/>
-    <col min="3073" max="3073" width="4.54296875" style="21" customWidth="1"/>
-    <col min="3074" max="3074" width="16.453125" style="21" customWidth="1"/>
-    <col min="3075" max="3075" width="17.26953125" style="21" customWidth="1"/>
-    <col min="3076" max="3076" width="60.54296875" style="21" customWidth="1"/>
-    <col min="3077" max="3078" width="15" style="21" customWidth="1"/>
-    <col min="3079" max="3079" width="12.7265625" style="21" customWidth="1"/>
-    <col min="3080" max="3080" width="4.81640625" style="21" customWidth="1"/>
-    <col min="3081" max="3103" width="9.1796875" style="21"/>
-    <col min="3104" max="3154" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="3155" max="3328" width="9.1796875" style="21"/>
-    <col min="3329" max="3329" width="4.54296875" style="21" customWidth="1"/>
-    <col min="3330" max="3330" width="16.453125" style="21" customWidth="1"/>
-    <col min="3331" max="3331" width="17.26953125" style="21" customWidth="1"/>
-    <col min="3332" max="3332" width="60.54296875" style="21" customWidth="1"/>
-    <col min="3333" max="3334" width="15" style="21" customWidth="1"/>
-    <col min="3335" max="3335" width="12.7265625" style="21" customWidth="1"/>
-    <col min="3336" max="3336" width="4.81640625" style="21" customWidth="1"/>
-    <col min="3337" max="3359" width="9.1796875" style="21"/>
-    <col min="3360" max="3410" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="3411" max="3584" width="9.1796875" style="21"/>
-    <col min="3585" max="3585" width="4.54296875" style="21" customWidth="1"/>
-    <col min="3586" max="3586" width="16.453125" style="21" customWidth="1"/>
-    <col min="3587" max="3587" width="17.26953125" style="21" customWidth="1"/>
-    <col min="3588" max="3588" width="60.54296875" style="21" customWidth="1"/>
-    <col min="3589" max="3590" width="15" style="21" customWidth="1"/>
-    <col min="3591" max="3591" width="12.7265625" style="21" customWidth="1"/>
-    <col min="3592" max="3592" width="4.81640625" style="21" customWidth="1"/>
-    <col min="3593" max="3615" width="9.1796875" style="21"/>
-    <col min="3616" max="3666" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="3667" max="3840" width="9.1796875" style="21"/>
-    <col min="3841" max="3841" width="4.54296875" style="21" customWidth="1"/>
-    <col min="3842" max="3842" width="16.453125" style="21" customWidth="1"/>
-    <col min="3843" max="3843" width="17.26953125" style="21" customWidth="1"/>
-    <col min="3844" max="3844" width="60.54296875" style="21" customWidth="1"/>
-    <col min="3845" max="3846" width="15" style="21" customWidth="1"/>
-    <col min="3847" max="3847" width="12.7265625" style="21" customWidth="1"/>
-    <col min="3848" max="3848" width="4.81640625" style="21" customWidth="1"/>
-    <col min="3849" max="3871" width="9.1796875" style="21"/>
-    <col min="3872" max="3922" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="3923" max="4096" width="9.1796875" style="21"/>
-    <col min="4097" max="4097" width="4.54296875" style="21" customWidth="1"/>
-    <col min="4098" max="4098" width="16.453125" style="21" customWidth="1"/>
-    <col min="4099" max="4099" width="17.26953125" style="21" customWidth="1"/>
-    <col min="4100" max="4100" width="60.54296875" style="21" customWidth="1"/>
-    <col min="4101" max="4102" width="15" style="21" customWidth="1"/>
-    <col min="4103" max="4103" width="12.7265625" style="21" customWidth="1"/>
-    <col min="4104" max="4104" width="4.81640625" style="21" customWidth="1"/>
-    <col min="4105" max="4127" width="9.1796875" style="21"/>
-    <col min="4128" max="4178" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="4179" max="4352" width="9.1796875" style="21"/>
-    <col min="4353" max="4353" width="4.54296875" style="21" customWidth="1"/>
-    <col min="4354" max="4354" width="16.453125" style="21" customWidth="1"/>
-    <col min="4355" max="4355" width="17.26953125" style="21" customWidth="1"/>
-    <col min="4356" max="4356" width="60.54296875" style="21" customWidth="1"/>
-    <col min="4357" max="4358" width="15" style="21" customWidth="1"/>
-    <col min="4359" max="4359" width="12.7265625" style="21" customWidth="1"/>
-    <col min="4360" max="4360" width="4.81640625" style="21" customWidth="1"/>
-    <col min="4361" max="4383" width="9.1796875" style="21"/>
-    <col min="4384" max="4434" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="4435" max="4608" width="9.1796875" style="21"/>
-    <col min="4609" max="4609" width="4.54296875" style="21" customWidth="1"/>
-    <col min="4610" max="4610" width="16.453125" style="21" customWidth="1"/>
-    <col min="4611" max="4611" width="17.26953125" style="21" customWidth="1"/>
-    <col min="4612" max="4612" width="60.54296875" style="21" customWidth="1"/>
-    <col min="4613" max="4614" width="15" style="21" customWidth="1"/>
-    <col min="4615" max="4615" width="12.7265625" style="21" customWidth="1"/>
-    <col min="4616" max="4616" width="4.81640625" style="21" customWidth="1"/>
-    <col min="4617" max="4639" width="9.1796875" style="21"/>
-    <col min="4640" max="4690" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="4691" max="4864" width="9.1796875" style="21"/>
-    <col min="4865" max="4865" width="4.54296875" style="21" customWidth="1"/>
-    <col min="4866" max="4866" width="16.453125" style="21" customWidth="1"/>
-    <col min="4867" max="4867" width="17.26953125" style="21" customWidth="1"/>
-    <col min="4868" max="4868" width="60.54296875" style="21" customWidth="1"/>
-    <col min="4869" max="4870" width="15" style="21" customWidth="1"/>
-    <col min="4871" max="4871" width="12.7265625" style="21" customWidth="1"/>
-    <col min="4872" max="4872" width="4.81640625" style="21" customWidth="1"/>
-    <col min="4873" max="4895" width="9.1796875" style="21"/>
-    <col min="4896" max="4946" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="4947" max="5120" width="9.1796875" style="21"/>
-    <col min="5121" max="5121" width="4.54296875" style="21" customWidth="1"/>
-    <col min="5122" max="5122" width="16.453125" style="21" customWidth="1"/>
-    <col min="5123" max="5123" width="17.26953125" style="21" customWidth="1"/>
-    <col min="5124" max="5124" width="60.54296875" style="21" customWidth="1"/>
-    <col min="5125" max="5126" width="15" style="21" customWidth="1"/>
-    <col min="5127" max="5127" width="12.7265625" style="21" customWidth="1"/>
-    <col min="5128" max="5128" width="4.81640625" style="21" customWidth="1"/>
-    <col min="5129" max="5151" width="9.1796875" style="21"/>
-    <col min="5152" max="5202" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="5203" max="5376" width="9.1796875" style="21"/>
-    <col min="5377" max="5377" width="4.54296875" style="21" customWidth="1"/>
-    <col min="5378" max="5378" width="16.453125" style="21" customWidth="1"/>
-    <col min="5379" max="5379" width="17.26953125" style="21" customWidth="1"/>
-    <col min="5380" max="5380" width="60.54296875" style="21" customWidth="1"/>
-    <col min="5381" max="5382" width="15" style="21" customWidth="1"/>
-    <col min="5383" max="5383" width="12.7265625" style="21" customWidth="1"/>
-    <col min="5384" max="5384" width="4.81640625" style="21" customWidth="1"/>
-    <col min="5385" max="5407" width="9.1796875" style="21"/>
-    <col min="5408" max="5458" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="5459" max="5632" width="9.1796875" style="21"/>
-    <col min="5633" max="5633" width="4.54296875" style="21" customWidth="1"/>
-    <col min="5634" max="5634" width="16.453125" style="21" customWidth="1"/>
-    <col min="5635" max="5635" width="17.26953125" style="21" customWidth="1"/>
-    <col min="5636" max="5636" width="60.54296875" style="21" customWidth="1"/>
-    <col min="5637" max="5638" width="15" style="21" customWidth="1"/>
-    <col min="5639" max="5639" width="12.7265625" style="21" customWidth="1"/>
-    <col min="5640" max="5640" width="4.81640625" style="21" customWidth="1"/>
-    <col min="5641" max="5663" width="9.1796875" style="21"/>
-    <col min="5664" max="5714" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="5715" max="5888" width="9.1796875" style="21"/>
-    <col min="5889" max="5889" width="4.54296875" style="21" customWidth="1"/>
-    <col min="5890" max="5890" width="16.453125" style="21" customWidth="1"/>
-    <col min="5891" max="5891" width="17.26953125" style="21" customWidth="1"/>
-    <col min="5892" max="5892" width="60.54296875" style="21" customWidth="1"/>
-    <col min="5893" max="5894" width="15" style="21" customWidth="1"/>
-    <col min="5895" max="5895" width="12.7265625" style="21" customWidth="1"/>
-    <col min="5896" max="5896" width="4.81640625" style="21" customWidth="1"/>
-    <col min="5897" max="5919" width="9.1796875" style="21"/>
-    <col min="5920" max="5970" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="5971" max="6144" width="9.1796875" style="21"/>
-    <col min="6145" max="6145" width="4.54296875" style="21" customWidth="1"/>
-    <col min="6146" max="6146" width="16.453125" style="21" customWidth="1"/>
-    <col min="6147" max="6147" width="17.26953125" style="21" customWidth="1"/>
-    <col min="6148" max="6148" width="60.54296875" style="21" customWidth="1"/>
-    <col min="6149" max="6150" width="15" style="21" customWidth="1"/>
-    <col min="6151" max="6151" width="12.7265625" style="21" customWidth="1"/>
-    <col min="6152" max="6152" width="4.81640625" style="21" customWidth="1"/>
-    <col min="6153" max="6175" width="9.1796875" style="21"/>
-    <col min="6176" max="6226" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="6227" max="6400" width="9.1796875" style="21"/>
-    <col min="6401" max="6401" width="4.54296875" style="21" customWidth="1"/>
-    <col min="6402" max="6402" width="16.453125" style="21" customWidth="1"/>
-    <col min="6403" max="6403" width="17.26953125" style="21" customWidth="1"/>
-    <col min="6404" max="6404" width="60.54296875" style="21" customWidth="1"/>
-    <col min="6405" max="6406" width="15" style="21" customWidth="1"/>
-    <col min="6407" max="6407" width="12.7265625" style="21" customWidth="1"/>
-    <col min="6408" max="6408" width="4.81640625" style="21" customWidth="1"/>
-    <col min="6409" max="6431" width="9.1796875" style="21"/>
-    <col min="6432" max="6482" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="6483" max="6656" width="9.1796875" style="21"/>
-    <col min="6657" max="6657" width="4.54296875" style="21" customWidth="1"/>
-    <col min="6658" max="6658" width="16.453125" style="21" customWidth="1"/>
-    <col min="6659" max="6659" width="17.26953125" style="21" customWidth="1"/>
-    <col min="6660" max="6660" width="60.54296875" style="21" customWidth="1"/>
-    <col min="6661" max="6662" width="15" style="21" customWidth="1"/>
-    <col min="6663" max="6663" width="12.7265625" style="21" customWidth="1"/>
-    <col min="6664" max="6664" width="4.81640625" style="21" customWidth="1"/>
-    <col min="6665" max="6687" width="9.1796875" style="21"/>
-    <col min="6688" max="6738" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="6739" max="6912" width="9.1796875" style="21"/>
-    <col min="6913" max="6913" width="4.54296875" style="21" customWidth="1"/>
-    <col min="6914" max="6914" width="16.453125" style="21" customWidth="1"/>
-    <col min="6915" max="6915" width="17.26953125" style="21" customWidth="1"/>
-    <col min="6916" max="6916" width="60.54296875" style="21" customWidth="1"/>
-    <col min="6917" max="6918" width="15" style="21" customWidth="1"/>
-    <col min="6919" max="6919" width="12.7265625" style="21" customWidth="1"/>
-    <col min="6920" max="6920" width="4.81640625" style="21" customWidth="1"/>
-    <col min="6921" max="6943" width="9.1796875" style="21"/>
-    <col min="6944" max="6994" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="6995" max="7168" width="9.1796875" style="21"/>
-    <col min="7169" max="7169" width="4.54296875" style="21" customWidth="1"/>
-    <col min="7170" max="7170" width="16.453125" style="21" customWidth="1"/>
-    <col min="7171" max="7171" width="17.26953125" style="21" customWidth="1"/>
-    <col min="7172" max="7172" width="60.54296875" style="21" customWidth="1"/>
-    <col min="7173" max="7174" width="15" style="21" customWidth="1"/>
-    <col min="7175" max="7175" width="12.7265625" style="21" customWidth="1"/>
-    <col min="7176" max="7176" width="4.81640625" style="21" customWidth="1"/>
-    <col min="7177" max="7199" width="9.1796875" style="21"/>
-    <col min="7200" max="7250" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="7251" max="7424" width="9.1796875" style="21"/>
-    <col min="7425" max="7425" width="4.54296875" style="21" customWidth="1"/>
-    <col min="7426" max="7426" width="16.453125" style="21" customWidth="1"/>
-    <col min="7427" max="7427" width="17.26953125" style="21" customWidth="1"/>
-    <col min="7428" max="7428" width="60.54296875" style="21" customWidth="1"/>
-    <col min="7429" max="7430" width="15" style="21" customWidth="1"/>
-    <col min="7431" max="7431" width="12.7265625" style="21" customWidth="1"/>
-    <col min="7432" max="7432" width="4.81640625" style="21" customWidth="1"/>
-    <col min="7433" max="7455" width="9.1796875" style="21"/>
-    <col min="7456" max="7506" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="7507" max="7680" width="9.1796875" style="21"/>
-    <col min="7681" max="7681" width="4.54296875" style="21" customWidth="1"/>
-    <col min="7682" max="7682" width="16.453125" style="21" customWidth="1"/>
-    <col min="7683" max="7683" width="17.26953125" style="21" customWidth="1"/>
-    <col min="7684" max="7684" width="60.54296875" style="21" customWidth="1"/>
-    <col min="7685" max="7686" width="15" style="21" customWidth="1"/>
-    <col min="7687" max="7687" width="12.7265625" style="21" customWidth="1"/>
-    <col min="7688" max="7688" width="4.81640625" style="21" customWidth="1"/>
-    <col min="7689" max="7711" width="9.1796875" style="21"/>
-    <col min="7712" max="7762" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="7763" max="7936" width="9.1796875" style="21"/>
-    <col min="7937" max="7937" width="4.54296875" style="21" customWidth="1"/>
-    <col min="7938" max="7938" width="16.453125" style="21" customWidth="1"/>
-    <col min="7939" max="7939" width="17.26953125" style="21" customWidth="1"/>
-    <col min="7940" max="7940" width="60.54296875" style="21" customWidth="1"/>
-    <col min="7941" max="7942" width="15" style="21" customWidth="1"/>
-    <col min="7943" max="7943" width="12.7265625" style="21" customWidth="1"/>
-    <col min="7944" max="7944" width="4.81640625" style="21" customWidth="1"/>
-    <col min="7945" max="7967" width="9.1796875" style="21"/>
-    <col min="7968" max="8018" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="8019" max="8192" width="9.1796875" style="21"/>
-    <col min="8193" max="8193" width="4.54296875" style="21" customWidth="1"/>
-    <col min="8194" max="8194" width="16.453125" style="21" customWidth="1"/>
-    <col min="8195" max="8195" width="17.26953125" style="21" customWidth="1"/>
-    <col min="8196" max="8196" width="60.54296875" style="21" customWidth="1"/>
-    <col min="8197" max="8198" width="15" style="21" customWidth="1"/>
-    <col min="8199" max="8199" width="12.7265625" style="21" customWidth="1"/>
-    <col min="8200" max="8200" width="4.81640625" style="21" customWidth="1"/>
-    <col min="8201" max="8223" width="9.1796875" style="21"/>
-    <col min="8224" max="8274" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="8275" max="8448" width="9.1796875" style="21"/>
-    <col min="8449" max="8449" width="4.54296875" style="21" customWidth="1"/>
-    <col min="8450" max="8450" width="16.453125" style="21" customWidth="1"/>
-    <col min="8451" max="8451" width="17.26953125" style="21" customWidth="1"/>
-    <col min="8452" max="8452" width="60.54296875" style="21" customWidth="1"/>
-    <col min="8453" max="8454" width="15" style="21" customWidth="1"/>
-    <col min="8455" max="8455" width="12.7265625" style="21" customWidth="1"/>
-    <col min="8456" max="8456" width="4.81640625" style="21" customWidth="1"/>
-    <col min="8457" max="8479" width="9.1796875" style="21"/>
-    <col min="8480" max="8530" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="8531" max="8704" width="9.1796875" style="21"/>
-    <col min="8705" max="8705" width="4.54296875" style="21" customWidth="1"/>
-    <col min="8706" max="8706" width="16.453125" style="21" customWidth="1"/>
-    <col min="8707" max="8707" width="17.26953125" style="21" customWidth="1"/>
-    <col min="8708" max="8708" width="60.54296875" style="21" customWidth="1"/>
-    <col min="8709" max="8710" width="15" style="21" customWidth="1"/>
-    <col min="8711" max="8711" width="12.7265625" style="21" customWidth="1"/>
-    <col min="8712" max="8712" width="4.81640625" style="21" customWidth="1"/>
-    <col min="8713" max="8735" width="9.1796875" style="21"/>
-    <col min="8736" max="8786" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="8787" max="8960" width="9.1796875" style="21"/>
-    <col min="8961" max="8961" width="4.54296875" style="21" customWidth="1"/>
-    <col min="8962" max="8962" width="16.453125" style="21" customWidth="1"/>
-    <col min="8963" max="8963" width="17.26953125" style="21" customWidth="1"/>
-    <col min="8964" max="8964" width="60.54296875" style="21" customWidth="1"/>
-    <col min="8965" max="8966" width="15" style="21" customWidth="1"/>
-    <col min="8967" max="8967" width="12.7265625" style="21" customWidth="1"/>
-    <col min="8968" max="8968" width="4.81640625" style="21" customWidth="1"/>
-    <col min="8969" max="8991" width="9.1796875" style="21"/>
-    <col min="8992" max="9042" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="9043" max="9216" width="9.1796875" style="21"/>
-    <col min="9217" max="9217" width="4.54296875" style="21" customWidth="1"/>
-    <col min="9218" max="9218" width="16.453125" style="21" customWidth="1"/>
-    <col min="9219" max="9219" width="17.26953125" style="21" customWidth="1"/>
-    <col min="9220" max="9220" width="60.54296875" style="21" customWidth="1"/>
-    <col min="9221" max="9222" width="15" style="21" customWidth="1"/>
-    <col min="9223" max="9223" width="12.7265625" style="21" customWidth="1"/>
-    <col min="9224" max="9224" width="4.81640625" style="21" customWidth="1"/>
-    <col min="9225" max="9247" width="9.1796875" style="21"/>
-    <col min="9248" max="9298" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="9299" max="9472" width="9.1796875" style="21"/>
-    <col min="9473" max="9473" width="4.54296875" style="21" customWidth="1"/>
-    <col min="9474" max="9474" width="16.453125" style="21" customWidth="1"/>
-    <col min="9475" max="9475" width="17.26953125" style="21" customWidth="1"/>
-    <col min="9476" max="9476" width="60.54296875" style="21" customWidth="1"/>
-    <col min="9477" max="9478" width="15" style="21" customWidth="1"/>
-    <col min="9479" max="9479" width="12.7265625" style="21" customWidth="1"/>
-    <col min="9480" max="9480" width="4.81640625" style="21" customWidth="1"/>
-    <col min="9481" max="9503" width="9.1796875" style="21"/>
-    <col min="9504" max="9554" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="9555" max="9728" width="9.1796875" style="21"/>
-    <col min="9729" max="9729" width="4.54296875" style="21" customWidth="1"/>
-    <col min="9730" max="9730" width="16.453125" style="21" customWidth="1"/>
-    <col min="9731" max="9731" width="17.26953125" style="21" customWidth="1"/>
-    <col min="9732" max="9732" width="60.54296875" style="21" customWidth="1"/>
-    <col min="9733" max="9734" width="15" style="21" customWidth="1"/>
-    <col min="9735" max="9735" width="12.7265625" style="21" customWidth="1"/>
-    <col min="9736" max="9736" width="4.81640625" style="21" customWidth="1"/>
-    <col min="9737" max="9759" width="9.1796875" style="21"/>
-    <col min="9760" max="9810" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="9811" max="9984" width="9.1796875" style="21"/>
-    <col min="9985" max="9985" width="4.54296875" style="21" customWidth="1"/>
-    <col min="9986" max="9986" width="16.453125" style="21" customWidth="1"/>
-    <col min="9987" max="9987" width="17.26953125" style="21" customWidth="1"/>
-    <col min="9988" max="9988" width="60.54296875" style="21" customWidth="1"/>
-    <col min="9989" max="9990" width="15" style="21" customWidth="1"/>
-    <col min="9991" max="9991" width="12.7265625" style="21" customWidth="1"/>
-    <col min="9992" max="9992" width="4.81640625" style="21" customWidth="1"/>
-    <col min="9993" max="10015" width="9.1796875" style="21"/>
-    <col min="10016" max="10066" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="10067" max="10240" width="9.1796875" style="21"/>
-    <col min="10241" max="10241" width="4.54296875" style="21" customWidth="1"/>
-    <col min="10242" max="10242" width="16.453125" style="21" customWidth="1"/>
-    <col min="10243" max="10243" width="17.26953125" style="21" customWidth="1"/>
-    <col min="10244" max="10244" width="60.54296875" style="21" customWidth="1"/>
-    <col min="10245" max="10246" width="15" style="21" customWidth="1"/>
-    <col min="10247" max="10247" width="12.7265625" style="21" customWidth="1"/>
-    <col min="10248" max="10248" width="4.81640625" style="21" customWidth="1"/>
-    <col min="10249" max="10271" width="9.1796875" style="21"/>
-    <col min="10272" max="10322" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="10323" max="10496" width="9.1796875" style="21"/>
-    <col min="10497" max="10497" width="4.54296875" style="21" customWidth="1"/>
-    <col min="10498" max="10498" width="16.453125" style="21" customWidth="1"/>
-    <col min="10499" max="10499" width="17.26953125" style="21" customWidth="1"/>
-    <col min="10500" max="10500" width="60.54296875" style="21" customWidth="1"/>
-    <col min="10501" max="10502" width="15" style="21" customWidth="1"/>
-    <col min="10503" max="10503" width="12.7265625" style="21" customWidth="1"/>
-    <col min="10504" max="10504" width="4.81640625" style="21" customWidth="1"/>
-    <col min="10505" max="10527" width="9.1796875" style="21"/>
-    <col min="10528" max="10578" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="10579" max="10752" width="9.1796875" style="21"/>
-    <col min="10753" max="10753" width="4.54296875" style="21" customWidth="1"/>
-    <col min="10754" max="10754" width="16.453125" style="21" customWidth="1"/>
-    <col min="10755" max="10755" width="17.26953125" style="21" customWidth="1"/>
-    <col min="10756" max="10756" width="60.54296875" style="21" customWidth="1"/>
-    <col min="10757" max="10758" width="15" style="21" customWidth="1"/>
-    <col min="10759" max="10759" width="12.7265625" style="21" customWidth="1"/>
-    <col min="10760" max="10760" width="4.81640625" style="21" customWidth="1"/>
-    <col min="10761" max="10783" width="9.1796875" style="21"/>
-    <col min="10784" max="10834" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="10835" max="11008" width="9.1796875" style="21"/>
-    <col min="11009" max="11009" width="4.54296875" style="21" customWidth="1"/>
-    <col min="11010" max="11010" width="16.453125" style="21" customWidth="1"/>
-    <col min="11011" max="11011" width="17.26953125" style="21" customWidth="1"/>
-    <col min="11012" max="11012" width="60.54296875" style="21" customWidth="1"/>
-    <col min="11013" max="11014" width="15" style="21" customWidth="1"/>
-    <col min="11015" max="11015" width="12.7265625" style="21" customWidth="1"/>
-    <col min="11016" max="11016" width="4.81640625" style="21" customWidth="1"/>
-    <col min="11017" max="11039" width="9.1796875" style="21"/>
-    <col min="11040" max="11090" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="11091" max="11264" width="9.1796875" style="21"/>
-    <col min="11265" max="11265" width="4.54296875" style="21" customWidth="1"/>
-    <col min="11266" max="11266" width="16.453125" style="21" customWidth="1"/>
-    <col min="11267" max="11267" width="17.26953125" style="21" customWidth="1"/>
-    <col min="11268" max="11268" width="60.54296875" style="21" customWidth="1"/>
-    <col min="11269" max="11270" width="15" style="21" customWidth="1"/>
-    <col min="11271" max="11271" width="12.7265625" style="21" customWidth="1"/>
-    <col min="11272" max="11272" width="4.81640625" style="21" customWidth="1"/>
-    <col min="11273" max="11295" width="9.1796875" style="21"/>
-    <col min="11296" max="11346" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="11347" max="11520" width="9.1796875" style="21"/>
-    <col min="11521" max="11521" width="4.54296875" style="21" customWidth="1"/>
-    <col min="11522" max="11522" width="16.453125" style="21" customWidth="1"/>
-    <col min="11523" max="11523" width="17.26953125" style="21" customWidth="1"/>
-    <col min="11524" max="11524" width="60.54296875" style="21" customWidth="1"/>
-    <col min="11525" max="11526" width="15" style="21" customWidth="1"/>
-    <col min="11527" max="11527" width="12.7265625" style="21" customWidth="1"/>
-    <col min="11528" max="11528" width="4.81640625" style="21" customWidth="1"/>
-    <col min="11529" max="11551" width="9.1796875" style="21"/>
-    <col min="11552" max="11602" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="11603" max="11776" width="9.1796875" style="21"/>
-    <col min="11777" max="11777" width="4.54296875" style="21" customWidth="1"/>
-    <col min="11778" max="11778" width="16.453125" style="21" customWidth="1"/>
-    <col min="11779" max="11779" width="17.26953125" style="21" customWidth="1"/>
-    <col min="11780" max="11780" width="60.54296875" style="21" customWidth="1"/>
-    <col min="11781" max="11782" width="15" style="21" customWidth="1"/>
-    <col min="11783" max="11783" width="12.7265625" style="21" customWidth="1"/>
-    <col min="11784" max="11784" width="4.81640625" style="21" customWidth="1"/>
-    <col min="11785" max="11807" width="9.1796875" style="21"/>
-    <col min="11808" max="11858" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="11859" max="12032" width="9.1796875" style="21"/>
-    <col min="12033" max="12033" width="4.54296875" style="21" customWidth="1"/>
-    <col min="12034" max="12034" width="16.453125" style="21" customWidth="1"/>
-    <col min="12035" max="12035" width="17.26953125" style="21" customWidth="1"/>
-    <col min="12036" max="12036" width="60.54296875" style="21" customWidth="1"/>
-    <col min="12037" max="12038" width="15" style="21" customWidth="1"/>
-    <col min="12039" max="12039" width="12.7265625" style="21" customWidth="1"/>
-    <col min="12040" max="12040" width="4.81640625" style="21" customWidth="1"/>
-    <col min="12041" max="12063" width="9.1796875" style="21"/>
-    <col min="12064" max="12114" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="12115" max="12288" width="9.1796875" style="21"/>
-    <col min="12289" max="12289" width="4.54296875" style="21" customWidth="1"/>
-    <col min="12290" max="12290" width="16.453125" style="21" customWidth="1"/>
-    <col min="12291" max="12291" width="17.26953125" style="21" customWidth="1"/>
-    <col min="12292" max="12292" width="60.54296875" style="21" customWidth="1"/>
-    <col min="12293" max="12294" width="15" style="21" customWidth="1"/>
-    <col min="12295" max="12295" width="12.7265625" style="21" customWidth="1"/>
-    <col min="12296" max="12296" width="4.81640625" style="21" customWidth="1"/>
-    <col min="12297" max="12319" width="9.1796875" style="21"/>
-    <col min="12320" max="12370" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="12371" max="12544" width="9.1796875" style="21"/>
-    <col min="12545" max="12545" width="4.54296875" style="21" customWidth="1"/>
-    <col min="12546" max="12546" width="16.453125" style="21" customWidth="1"/>
-    <col min="12547" max="12547" width="17.26953125" style="21" customWidth="1"/>
-    <col min="12548" max="12548" width="60.54296875" style="21" customWidth="1"/>
-    <col min="12549" max="12550" width="15" style="21" customWidth="1"/>
-    <col min="12551" max="12551" width="12.7265625" style="21" customWidth="1"/>
-    <col min="12552" max="12552" width="4.81640625" style="21" customWidth="1"/>
-    <col min="12553" max="12575" width="9.1796875" style="21"/>
-    <col min="12576" max="12626" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="12627" max="12800" width="9.1796875" style="21"/>
-    <col min="12801" max="12801" width="4.54296875" style="21" customWidth="1"/>
-    <col min="12802" max="12802" width="16.453125" style="21" customWidth="1"/>
-    <col min="12803" max="12803" width="17.26953125" style="21" customWidth="1"/>
-    <col min="12804" max="12804" width="60.54296875" style="21" customWidth="1"/>
-    <col min="12805" max="12806" width="15" style="21" customWidth="1"/>
-    <col min="12807" max="12807" width="12.7265625" style="21" customWidth="1"/>
-    <col min="12808" max="12808" width="4.81640625" style="21" customWidth="1"/>
-    <col min="12809" max="12831" width="9.1796875" style="21"/>
-    <col min="12832" max="12882" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="12883" max="13056" width="9.1796875" style="21"/>
-    <col min="13057" max="13057" width="4.54296875" style="21" customWidth="1"/>
-    <col min="13058" max="13058" width="16.453125" style="21" customWidth="1"/>
-    <col min="13059" max="13059" width="17.26953125" style="21" customWidth="1"/>
-    <col min="13060" max="13060" width="60.54296875" style="21" customWidth="1"/>
-    <col min="13061" max="13062" width="15" style="21" customWidth="1"/>
-    <col min="13063" max="13063" width="12.7265625" style="21" customWidth="1"/>
-    <col min="13064" max="13064" width="4.81640625" style="21" customWidth="1"/>
-    <col min="13065" max="13087" width="9.1796875" style="21"/>
-    <col min="13088" max="13138" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="13139" max="13312" width="9.1796875" style="21"/>
-    <col min="13313" max="13313" width="4.54296875" style="21" customWidth="1"/>
-    <col min="13314" max="13314" width="16.453125" style="21" customWidth="1"/>
-    <col min="13315" max="13315" width="17.26953125" style="21" customWidth="1"/>
-    <col min="13316" max="13316" width="60.54296875" style="21" customWidth="1"/>
-    <col min="13317" max="13318" width="15" style="21" customWidth="1"/>
-    <col min="13319" max="13319" width="12.7265625" style="21" customWidth="1"/>
-    <col min="13320" max="13320" width="4.81640625" style="21" customWidth="1"/>
-    <col min="13321" max="13343" width="9.1796875" style="21"/>
-    <col min="13344" max="13394" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="13395" max="13568" width="9.1796875" style="21"/>
-    <col min="13569" max="13569" width="4.54296875" style="21" customWidth="1"/>
-    <col min="13570" max="13570" width="16.453125" style="21" customWidth="1"/>
-    <col min="13571" max="13571" width="17.26953125" style="21" customWidth="1"/>
-    <col min="13572" max="13572" width="60.54296875" style="21" customWidth="1"/>
-    <col min="13573" max="13574" width="15" style="21" customWidth="1"/>
-    <col min="13575" max="13575" width="12.7265625" style="21" customWidth="1"/>
-    <col min="13576" max="13576" width="4.81640625" style="21" customWidth="1"/>
-    <col min="13577" max="13599" width="9.1796875" style="21"/>
-    <col min="13600" max="13650" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="13651" max="13824" width="9.1796875" style="21"/>
-    <col min="13825" max="13825" width="4.54296875" style="21" customWidth="1"/>
-    <col min="13826" max="13826" width="16.453125" style="21" customWidth="1"/>
-    <col min="13827" max="13827" width="17.26953125" style="21" customWidth="1"/>
-    <col min="13828" max="13828" width="60.54296875" style="21" customWidth="1"/>
-    <col min="13829" max="13830" width="15" style="21" customWidth="1"/>
-    <col min="13831" max="13831" width="12.7265625" style="21" customWidth="1"/>
-    <col min="13832" max="13832" width="4.81640625" style="21" customWidth="1"/>
-    <col min="13833" max="13855" width="9.1796875" style="21"/>
-    <col min="13856" max="13906" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="13907" max="14080" width="9.1796875" style="21"/>
-    <col min="14081" max="14081" width="4.54296875" style="21" customWidth="1"/>
-    <col min="14082" max="14082" width="16.453125" style="21" customWidth="1"/>
-    <col min="14083" max="14083" width="17.26953125" style="21" customWidth="1"/>
-    <col min="14084" max="14084" width="60.54296875" style="21" customWidth="1"/>
-    <col min="14085" max="14086" width="15" style="21" customWidth="1"/>
-    <col min="14087" max="14087" width="12.7265625" style="21" customWidth="1"/>
-    <col min="14088" max="14088" width="4.81640625" style="21" customWidth="1"/>
-    <col min="14089" max="14111" width="9.1796875" style="21"/>
-    <col min="14112" max="14162" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="14163" max="14336" width="9.1796875" style="21"/>
-    <col min="14337" max="14337" width="4.54296875" style="21" customWidth="1"/>
-    <col min="14338" max="14338" width="16.453125" style="21" customWidth="1"/>
-    <col min="14339" max="14339" width="17.26953125" style="21" customWidth="1"/>
-    <col min="14340" max="14340" width="60.54296875" style="21" customWidth="1"/>
-    <col min="14341" max="14342" width="15" style="21" customWidth="1"/>
-    <col min="14343" max="14343" width="12.7265625" style="21" customWidth="1"/>
-    <col min="14344" max="14344" width="4.81640625" style="21" customWidth="1"/>
-    <col min="14345" max="14367" width="9.1796875" style="21"/>
-    <col min="14368" max="14418" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="14419" max="14592" width="9.1796875" style="21"/>
-    <col min="14593" max="14593" width="4.54296875" style="21" customWidth="1"/>
-    <col min="14594" max="14594" width="16.453125" style="21" customWidth="1"/>
-    <col min="14595" max="14595" width="17.26953125" style="21" customWidth="1"/>
-    <col min="14596" max="14596" width="60.54296875" style="21" customWidth="1"/>
-    <col min="14597" max="14598" width="15" style="21" customWidth="1"/>
-    <col min="14599" max="14599" width="12.7265625" style="21" customWidth="1"/>
-    <col min="14600" max="14600" width="4.81640625" style="21" customWidth="1"/>
-    <col min="14601" max="14623" width="9.1796875" style="21"/>
-    <col min="14624" max="14674" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="14675" max="14848" width="9.1796875" style="21"/>
-    <col min="14849" max="14849" width="4.54296875" style="21" customWidth="1"/>
-    <col min="14850" max="14850" width="16.453125" style="21" customWidth="1"/>
-    <col min="14851" max="14851" width="17.26953125" style="21" customWidth="1"/>
-    <col min="14852" max="14852" width="60.54296875" style="21" customWidth="1"/>
-    <col min="14853" max="14854" width="15" style="21" customWidth="1"/>
-    <col min="14855" max="14855" width="12.7265625" style="21" customWidth="1"/>
-    <col min="14856" max="14856" width="4.81640625" style="21" customWidth="1"/>
-    <col min="14857" max="14879" width="9.1796875" style="21"/>
-    <col min="14880" max="14930" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="14931" max="15104" width="9.1796875" style="21"/>
-    <col min="15105" max="15105" width="4.54296875" style="21" customWidth="1"/>
-    <col min="15106" max="15106" width="16.453125" style="21" customWidth="1"/>
-    <col min="15107" max="15107" width="17.26953125" style="21" customWidth="1"/>
-    <col min="15108" max="15108" width="60.54296875" style="21" customWidth="1"/>
-    <col min="15109" max="15110" width="15" style="21" customWidth="1"/>
-    <col min="15111" max="15111" width="12.7265625" style="21" customWidth="1"/>
-    <col min="15112" max="15112" width="4.81640625" style="21" customWidth="1"/>
-    <col min="15113" max="15135" width="9.1796875" style="21"/>
-    <col min="15136" max="15186" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="15187" max="15360" width="9.1796875" style="21"/>
-    <col min="15361" max="15361" width="4.54296875" style="21" customWidth="1"/>
-    <col min="15362" max="15362" width="16.453125" style="21" customWidth="1"/>
-    <col min="15363" max="15363" width="17.26953125" style="21" customWidth="1"/>
-    <col min="15364" max="15364" width="60.54296875" style="21" customWidth="1"/>
-    <col min="15365" max="15366" width="15" style="21" customWidth="1"/>
-    <col min="15367" max="15367" width="12.7265625" style="21" customWidth="1"/>
-    <col min="15368" max="15368" width="4.81640625" style="21" customWidth="1"/>
-    <col min="15369" max="15391" width="9.1796875" style="21"/>
-    <col min="15392" max="15442" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="15443" max="15616" width="9.1796875" style="21"/>
-    <col min="15617" max="15617" width="4.54296875" style="21" customWidth="1"/>
-    <col min="15618" max="15618" width="16.453125" style="21" customWidth="1"/>
-    <col min="15619" max="15619" width="17.26953125" style="21" customWidth="1"/>
-    <col min="15620" max="15620" width="60.54296875" style="21" customWidth="1"/>
-    <col min="15621" max="15622" width="15" style="21" customWidth="1"/>
-    <col min="15623" max="15623" width="12.7265625" style="21" customWidth="1"/>
-    <col min="15624" max="15624" width="4.81640625" style="21" customWidth="1"/>
-    <col min="15625" max="15647" width="9.1796875" style="21"/>
-    <col min="15648" max="15698" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="15699" max="15872" width="9.1796875" style="21"/>
-    <col min="15873" max="15873" width="4.54296875" style="21" customWidth="1"/>
-    <col min="15874" max="15874" width="16.453125" style="21" customWidth="1"/>
-    <col min="15875" max="15875" width="17.26953125" style="21" customWidth="1"/>
-    <col min="15876" max="15876" width="60.54296875" style="21" customWidth="1"/>
-    <col min="15877" max="15878" width="15" style="21" customWidth="1"/>
-    <col min="15879" max="15879" width="12.7265625" style="21" customWidth="1"/>
-    <col min="15880" max="15880" width="4.81640625" style="21" customWidth="1"/>
-    <col min="15881" max="15903" width="9.1796875" style="21"/>
-    <col min="15904" max="15954" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="15955" max="16128" width="9.1796875" style="21"/>
-    <col min="16129" max="16129" width="4.54296875" style="21" customWidth="1"/>
-    <col min="16130" max="16130" width="16.453125" style="21" customWidth="1"/>
-    <col min="16131" max="16131" width="17.26953125" style="21" customWidth="1"/>
-    <col min="16132" max="16132" width="60.54296875" style="21" customWidth="1"/>
-    <col min="16133" max="16134" width="15" style="21" customWidth="1"/>
-    <col min="16135" max="16135" width="12.7265625" style="21" customWidth="1"/>
-    <col min="16136" max="16136" width="4.81640625" style="21" customWidth="1"/>
-    <col min="16137" max="16159" width="9.1796875" style="21"/>
-    <col min="16160" max="16210" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="16211" max="16384" width="9.1796875" style="21"/>
+    <col min="1" max="1" width="4.54296875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="60.54296875" style="19" customWidth="1"/>
+    <col min="5" max="6" width="15" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" style="19" customWidth="1"/>
+    <col min="9" max="31" width="9.1796875" style="19"/>
+    <col min="32" max="82" width="10.26953125" style="19" hidden="1" customWidth="1"/>
+    <col min="83" max="256" width="9.1796875" style="19"/>
+    <col min="257" max="257" width="4.54296875" style="19" customWidth="1"/>
+    <col min="258" max="258" width="16.453125" style="19" customWidth="1"/>
+    <col min="259" max="259" width="17.26953125" style="19" customWidth="1"/>
+    <col min="260" max="260" width="60.54296875" style="19" customWidth="1"/>
+    <col min="261" max="262" width="15" style="19" customWidth="1"/>
+    <col min="263" max="263" width="12.7265625" style="19" customWidth="1"/>
+    <col min="264" max="264" width="4.81640625" style="19" customWidth="1"/>
+    <col min="265" max="287" width="9.1796875" style="19"/>
+    <col min="288" max="338" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="339" max="512" width="9.1796875" style="19"/>
+    <col min="513" max="513" width="4.54296875" style="19" customWidth="1"/>
+    <col min="514" max="514" width="16.453125" style="19" customWidth="1"/>
+    <col min="515" max="515" width="17.26953125" style="19" customWidth="1"/>
+    <col min="516" max="516" width="60.54296875" style="19" customWidth="1"/>
+    <col min="517" max="518" width="15" style="19" customWidth="1"/>
+    <col min="519" max="519" width="12.7265625" style="19" customWidth="1"/>
+    <col min="520" max="520" width="4.81640625" style="19" customWidth="1"/>
+    <col min="521" max="543" width="9.1796875" style="19"/>
+    <col min="544" max="594" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="595" max="768" width="9.1796875" style="19"/>
+    <col min="769" max="769" width="4.54296875" style="19" customWidth="1"/>
+    <col min="770" max="770" width="16.453125" style="19" customWidth="1"/>
+    <col min="771" max="771" width="17.26953125" style="19" customWidth="1"/>
+    <col min="772" max="772" width="60.54296875" style="19" customWidth="1"/>
+    <col min="773" max="774" width="15" style="19" customWidth="1"/>
+    <col min="775" max="775" width="12.7265625" style="19" customWidth="1"/>
+    <col min="776" max="776" width="4.81640625" style="19" customWidth="1"/>
+    <col min="777" max="799" width="9.1796875" style="19"/>
+    <col min="800" max="850" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="851" max="1024" width="9.1796875" style="19"/>
+    <col min="1025" max="1025" width="4.54296875" style="19" customWidth="1"/>
+    <col min="1026" max="1026" width="16.453125" style="19" customWidth="1"/>
+    <col min="1027" max="1027" width="17.26953125" style="19" customWidth="1"/>
+    <col min="1028" max="1028" width="60.54296875" style="19" customWidth="1"/>
+    <col min="1029" max="1030" width="15" style="19" customWidth="1"/>
+    <col min="1031" max="1031" width="12.7265625" style="19" customWidth="1"/>
+    <col min="1032" max="1032" width="4.81640625" style="19" customWidth="1"/>
+    <col min="1033" max="1055" width="9.1796875" style="19"/>
+    <col min="1056" max="1106" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="1107" max="1280" width="9.1796875" style="19"/>
+    <col min="1281" max="1281" width="4.54296875" style="19" customWidth="1"/>
+    <col min="1282" max="1282" width="16.453125" style="19" customWidth="1"/>
+    <col min="1283" max="1283" width="17.26953125" style="19" customWidth="1"/>
+    <col min="1284" max="1284" width="60.54296875" style="19" customWidth="1"/>
+    <col min="1285" max="1286" width="15" style="19" customWidth="1"/>
+    <col min="1287" max="1287" width="12.7265625" style="19" customWidth="1"/>
+    <col min="1288" max="1288" width="4.81640625" style="19" customWidth="1"/>
+    <col min="1289" max="1311" width="9.1796875" style="19"/>
+    <col min="1312" max="1362" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="1363" max="1536" width="9.1796875" style="19"/>
+    <col min="1537" max="1537" width="4.54296875" style="19" customWidth="1"/>
+    <col min="1538" max="1538" width="16.453125" style="19" customWidth="1"/>
+    <col min="1539" max="1539" width="17.26953125" style="19" customWidth="1"/>
+    <col min="1540" max="1540" width="60.54296875" style="19" customWidth="1"/>
+    <col min="1541" max="1542" width="15" style="19" customWidth="1"/>
+    <col min="1543" max="1543" width="12.7265625" style="19" customWidth="1"/>
+    <col min="1544" max="1544" width="4.81640625" style="19" customWidth="1"/>
+    <col min="1545" max="1567" width="9.1796875" style="19"/>
+    <col min="1568" max="1618" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="1619" max="1792" width="9.1796875" style="19"/>
+    <col min="1793" max="1793" width="4.54296875" style="19" customWidth="1"/>
+    <col min="1794" max="1794" width="16.453125" style="19" customWidth="1"/>
+    <col min="1795" max="1795" width="17.26953125" style="19" customWidth="1"/>
+    <col min="1796" max="1796" width="60.54296875" style="19" customWidth="1"/>
+    <col min="1797" max="1798" width="15" style="19" customWidth="1"/>
+    <col min="1799" max="1799" width="12.7265625" style="19" customWidth="1"/>
+    <col min="1800" max="1800" width="4.81640625" style="19" customWidth="1"/>
+    <col min="1801" max="1823" width="9.1796875" style="19"/>
+    <col min="1824" max="1874" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="1875" max="2048" width="9.1796875" style="19"/>
+    <col min="2049" max="2049" width="4.54296875" style="19" customWidth="1"/>
+    <col min="2050" max="2050" width="16.453125" style="19" customWidth="1"/>
+    <col min="2051" max="2051" width="17.26953125" style="19" customWidth="1"/>
+    <col min="2052" max="2052" width="60.54296875" style="19" customWidth="1"/>
+    <col min="2053" max="2054" width="15" style="19" customWidth="1"/>
+    <col min="2055" max="2055" width="12.7265625" style="19" customWidth="1"/>
+    <col min="2056" max="2056" width="4.81640625" style="19" customWidth="1"/>
+    <col min="2057" max="2079" width="9.1796875" style="19"/>
+    <col min="2080" max="2130" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="2131" max="2304" width="9.1796875" style="19"/>
+    <col min="2305" max="2305" width="4.54296875" style="19" customWidth="1"/>
+    <col min="2306" max="2306" width="16.453125" style="19" customWidth="1"/>
+    <col min="2307" max="2307" width="17.26953125" style="19" customWidth="1"/>
+    <col min="2308" max="2308" width="60.54296875" style="19" customWidth="1"/>
+    <col min="2309" max="2310" width="15" style="19" customWidth="1"/>
+    <col min="2311" max="2311" width="12.7265625" style="19" customWidth="1"/>
+    <col min="2312" max="2312" width="4.81640625" style="19" customWidth="1"/>
+    <col min="2313" max="2335" width="9.1796875" style="19"/>
+    <col min="2336" max="2386" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="2387" max="2560" width="9.1796875" style="19"/>
+    <col min="2561" max="2561" width="4.54296875" style="19" customWidth="1"/>
+    <col min="2562" max="2562" width="16.453125" style="19" customWidth="1"/>
+    <col min="2563" max="2563" width="17.26953125" style="19" customWidth="1"/>
+    <col min="2564" max="2564" width="60.54296875" style="19" customWidth="1"/>
+    <col min="2565" max="2566" width="15" style="19" customWidth="1"/>
+    <col min="2567" max="2567" width="12.7265625" style="19" customWidth="1"/>
+    <col min="2568" max="2568" width="4.81640625" style="19" customWidth="1"/>
+    <col min="2569" max="2591" width="9.1796875" style="19"/>
+    <col min="2592" max="2642" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="2643" max="2816" width="9.1796875" style="19"/>
+    <col min="2817" max="2817" width="4.54296875" style="19" customWidth="1"/>
+    <col min="2818" max="2818" width="16.453125" style="19" customWidth="1"/>
+    <col min="2819" max="2819" width="17.26953125" style="19" customWidth="1"/>
+    <col min="2820" max="2820" width="60.54296875" style="19" customWidth="1"/>
+    <col min="2821" max="2822" width="15" style="19" customWidth="1"/>
+    <col min="2823" max="2823" width="12.7265625" style="19" customWidth="1"/>
+    <col min="2824" max="2824" width="4.81640625" style="19" customWidth="1"/>
+    <col min="2825" max="2847" width="9.1796875" style="19"/>
+    <col min="2848" max="2898" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="2899" max="3072" width="9.1796875" style="19"/>
+    <col min="3073" max="3073" width="4.54296875" style="19" customWidth="1"/>
+    <col min="3074" max="3074" width="16.453125" style="19" customWidth="1"/>
+    <col min="3075" max="3075" width="17.26953125" style="19" customWidth="1"/>
+    <col min="3076" max="3076" width="60.54296875" style="19" customWidth="1"/>
+    <col min="3077" max="3078" width="15" style="19" customWidth="1"/>
+    <col min="3079" max="3079" width="12.7265625" style="19" customWidth="1"/>
+    <col min="3080" max="3080" width="4.81640625" style="19" customWidth="1"/>
+    <col min="3081" max="3103" width="9.1796875" style="19"/>
+    <col min="3104" max="3154" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="3155" max="3328" width="9.1796875" style="19"/>
+    <col min="3329" max="3329" width="4.54296875" style="19" customWidth="1"/>
+    <col min="3330" max="3330" width="16.453125" style="19" customWidth="1"/>
+    <col min="3331" max="3331" width="17.26953125" style="19" customWidth="1"/>
+    <col min="3332" max="3332" width="60.54296875" style="19" customWidth="1"/>
+    <col min="3333" max="3334" width="15" style="19" customWidth="1"/>
+    <col min="3335" max="3335" width="12.7265625" style="19" customWidth="1"/>
+    <col min="3336" max="3336" width="4.81640625" style="19" customWidth="1"/>
+    <col min="3337" max="3359" width="9.1796875" style="19"/>
+    <col min="3360" max="3410" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="3411" max="3584" width="9.1796875" style="19"/>
+    <col min="3585" max="3585" width="4.54296875" style="19" customWidth="1"/>
+    <col min="3586" max="3586" width="16.453125" style="19" customWidth="1"/>
+    <col min="3587" max="3587" width="17.26953125" style="19" customWidth="1"/>
+    <col min="3588" max="3588" width="60.54296875" style="19" customWidth="1"/>
+    <col min="3589" max="3590" width="15" style="19" customWidth="1"/>
+    <col min="3591" max="3591" width="12.7265625" style="19" customWidth="1"/>
+    <col min="3592" max="3592" width="4.81640625" style="19" customWidth="1"/>
+    <col min="3593" max="3615" width="9.1796875" style="19"/>
+    <col min="3616" max="3666" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="3667" max="3840" width="9.1796875" style="19"/>
+    <col min="3841" max="3841" width="4.54296875" style="19" customWidth="1"/>
+    <col min="3842" max="3842" width="16.453125" style="19" customWidth="1"/>
+    <col min="3843" max="3843" width="17.26953125" style="19" customWidth="1"/>
+    <col min="3844" max="3844" width="60.54296875" style="19" customWidth="1"/>
+    <col min="3845" max="3846" width="15" style="19" customWidth="1"/>
+    <col min="3847" max="3847" width="12.7265625" style="19" customWidth="1"/>
+    <col min="3848" max="3848" width="4.81640625" style="19" customWidth="1"/>
+    <col min="3849" max="3871" width="9.1796875" style="19"/>
+    <col min="3872" max="3922" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="3923" max="4096" width="9.1796875" style="19"/>
+    <col min="4097" max="4097" width="4.54296875" style="19" customWidth="1"/>
+    <col min="4098" max="4098" width="16.453125" style="19" customWidth="1"/>
+    <col min="4099" max="4099" width="17.26953125" style="19" customWidth="1"/>
+    <col min="4100" max="4100" width="60.54296875" style="19" customWidth="1"/>
+    <col min="4101" max="4102" width="15" style="19" customWidth="1"/>
+    <col min="4103" max="4103" width="12.7265625" style="19" customWidth="1"/>
+    <col min="4104" max="4104" width="4.81640625" style="19" customWidth="1"/>
+    <col min="4105" max="4127" width="9.1796875" style="19"/>
+    <col min="4128" max="4178" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="4179" max="4352" width="9.1796875" style="19"/>
+    <col min="4353" max="4353" width="4.54296875" style="19" customWidth="1"/>
+    <col min="4354" max="4354" width="16.453125" style="19" customWidth="1"/>
+    <col min="4355" max="4355" width="17.26953125" style="19" customWidth="1"/>
+    <col min="4356" max="4356" width="60.54296875" style="19" customWidth="1"/>
+    <col min="4357" max="4358" width="15" style="19" customWidth="1"/>
+    <col min="4359" max="4359" width="12.7265625" style="19" customWidth="1"/>
+    <col min="4360" max="4360" width="4.81640625" style="19" customWidth="1"/>
+    <col min="4361" max="4383" width="9.1796875" style="19"/>
+    <col min="4384" max="4434" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="4435" max="4608" width="9.1796875" style="19"/>
+    <col min="4609" max="4609" width="4.54296875" style="19" customWidth="1"/>
+    <col min="4610" max="4610" width="16.453125" style="19" customWidth="1"/>
+    <col min="4611" max="4611" width="17.26953125" style="19" customWidth="1"/>
+    <col min="4612" max="4612" width="60.54296875" style="19" customWidth="1"/>
+    <col min="4613" max="4614" width="15" style="19" customWidth="1"/>
+    <col min="4615" max="4615" width="12.7265625" style="19" customWidth="1"/>
+    <col min="4616" max="4616" width="4.81640625" style="19" customWidth="1"/>
+    <col min="4617" max="4639" width="9.1796875" style="19"/>
+    <col min="4640" max="4690" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="4691" max="4864" width="9.1796875" style="19"/>
+    <col min="4865" max="4865" width="4.54296875" style="19" customWidth="1"/>
+    <col min="4866" max="4866" width="16.453125" style="19" customWidth="1"/>
+    <col min="4867" max="4867" width="17.26953125" style="19" customWidth="1"/>
+    <col min="4868" max="4868" width="60.54296875" style="19" customWidth="1"/>
+    <col min="4869" max="4870" width="15" style="19" customWidth="1"/>
+    <col min="4871" max="4871" width="12.7265625" style="19" customWidth="1"/>
+    <col min="4872" max="4872" width="4.81640625" style="19" customWidth="1"/>
+    <col min="4873" max="4895" width="9.1796875" style="19"/>
+    <col min="4896" max="4946" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="4947" max="5120" width="9.1796875" style="19"/>
+    <col min="5121" max="5121" width="4.54296875" style="19" customWidth="1"/>
+    <col min="5122" max="5122" width="16.453125" style="19" customWidth="1"/>
+    <col min="5123" max="5123" width="17.26953125" style="19" customWidth="1"/>
+    <col min="5124" max="5124" width="60.54296875" style="19" customWidth="1"/>
+    <col min="5125" max="5126" width="15" style="19" customWidth="1"/>
+    <col min="5127" max="5127" width="12.7265625" style="19" customWidth="1"/>
+    <col min="5128" max="5128" width="4.81640625" style="19" customWidth="1"/>
+    <col min="5129" max="5151" width="9.1796875" style="19"/>
+    <col min="5152" max="5202" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="5203" max="5376" width="9.1796875" style="19"/>
+    <col min="5377" max="5377" width="4.54296875" style="19" customWidth="1"/>
+    <col min="5378" max="5378" width="16.453125" style="19" customWidth="1"/>
+    <col min="5379" max="5379" width="17.26953125" style="19" customWidth="1"/>
+    <col min="5380" max="5380" width="60.54296875" style="19" customWidth="1"/>
+    <col min="5381" max="5382" width="15" style="19" customWidth="1"/>
+    <col min="5383" max="5383" width="12.7265625" style="19" customWidth="1"/>
+    <col min="5384" max="5384" width="4.81640625" style="19" customWidth="1"/>
+    <col min="5385" max="5407" width="9.1796875" style="19"/>
+    <col min="5408" max="5458" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="5459" max="5632" width="9.1796875" style="19"/>
+    <col min="5633" max="5633" width="4.54296875" style="19" customWidth="1"/>
+    <col min="5634" max="5634" width="16.453125" style="19" customWidth="1"/>
+    <col min="5635" max="5635" width="17.26953125" style="19" customWidth="1"/>
+    <col min="5636" max="5636" width="60.54296875" style="19" customWidth="1"/>
+    <col min="5637" max="5638" width="15" style="19" customWidth="1"/>
+    <col min="5639" max="5639" width="12.7265625" style="19" customWidth="1"/>
+    <col min="5640" max="5640" width="4.81640625" style="19" customWidth="1"/>
+    <col min="5641" max="5663" width="9.1796875" style="19"/>
+    <col min="5664" max="5714" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="5715" max="5888" width="9.1796875" style="19"/>
+    <col min="5889" max="5889" width="4.54296875" style="19" customWidth="1"/>
+    <col min="5890" max="5890" width="16.453125" style="19" customWidth="1"/>
+    <col min="5891" max="5891" width="17.26953125" style="19" customWidth="1"/>
+    <col min="5892" max="5892" width="60.54296875" style="19" customWidth="1"/>
+    <col min="5893" max="5894" width="15" style="19" customWidth="1"/>
+    <col min="5895" max="5895" width="12.7265625" style="19" customWidth="1"/>
+    <col min="5896" max="5896" width="4.81640625" style="19" customWidth="1"/>
+    <col min="5897" max="5919" width="9.1796875" style="19"/>
+    <col min="5920" max="5970" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="5971" max="6144" width="9.1796875" style="19"/>
+    <col min="6145" max="6145" width="4.54296875" style="19" customWidth="1"/>
+    <col min="6146" max="6146" width="16.453125" style="19" customWidth="1"/>
+    <col min="6147" max="6147" width="17.26953125" style="19" customWidth="1"/>
+    <col min="6148" max="6148" width="60.54296875" style="19" customWidth="1"/>
+    <col min="6149" max="6150" width="15" style="19" customWidth="1"/>
+    <col min="6151" max="6151" width="12.7265625" style="19" customWidth="1"/>
+    <col min="6152" max="6152" width="4.81640625" style="19" customWidth="1"/>
+    <col min="6153" max="6175" width="9.1796875" style="19"/>
+    <col min="6176" max="6226" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="6227" max="6400" width="9.1796875" style="19"/>
+    <col min="6401" max="6401" width="4.54296875" style="19" customWidth="1"/>
+    <col min="6402" max="6402" width="16.453125" style="19" customWidth="1"/>
+    <col min="6403" max="6403" width="17.26953125" style="19" customWidth="1"/>
+    <col min="6404" max="6404" width="60.54296875" style="19" customWidth="1"/>
+    <col min="6405" max="6406" width="15" style="19" customWidth="1"/>
+    <col min="6407" max="6407" width="12.7265625" style="19" customWidth="1"/>
+    <col min="6408" max="6408" width="4.81640625" style="19" customWidth="1"/>
+    <col min="6409" max="6431" width="9.1796875" style="19"/>
+    <col min="6432" max="6482" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="6483" max="6656" width="9.1796875" style="19"/>
+    <col min="6657" max="6657" width="4.54296875" style="19" customWidth="1"/>
+    <col min="6658" max="6658" width="16.453125" style="19" customWidth="1"/>
+    <col min="6659" max="6659" width="17.26953125" style="19" customWidth="1"/>
+    <col min="6660" max="6660" width="60.54296875" style="19" customWidth="1"/>
+    <col min="6661" max="6662" width="15" style="19" customWidth="1"/>
+    <col min="6663" max="6663" width="12.7265625" style="19" customWidth="1"/>
+    <col min="6664" max="6664" width="4.81640625" style="19" customWidth="1"/>
+    <col min="6665" max="6687" width="9.1796875" style="19"/>
+    <col min="6688" max="6738" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="6739" max="6912" width="9.1796875" style="19"/>
+    <col min="6913" max="6913" width="4.54296875" style="19" customWidth="1"/>
+    <col min="6914" max="6914" width="16.453125" style="19" customWidth="1"/>
+    <col min="6915" max="6915" width="17.26953125" style="19" customWidth="1"/>
+    <col min="6916" max="6916" width="60.54296875" style="19" customWidth="1"/>
+    <col min="6917" max="6918" width="15" style="19" customWidth="1"/>
+    <col min="6919" max="6919" width="12.7265625" style="19" customWidth="1"/>
+    <col min="6920" max="6920" width="4.81640625" style="19" customWidth="1"/>
+    <col min="6921" max="6943" width="9.1796875" style="19"/>
+    <col min="6944" max="6994" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="6995" max="7168" width="9.1796875" style="19"/>
+    <col min="7169" max="7169" width="4.54296875" style="19" customWidth="1"/>
+    <col min="7170" max="7170" width="16.453125" style="19" customWidth="1"/>
+    <col min="7171" max="7171" width="17.26953125" style="19" customWidth="1"/>
+    <col min="7172" max="7172" width="60.54296875" style="19" customWidth="1"/>
+    <col min="7173" max="7174" width="15" style="19" customWidth="1"/>
+    <col min="7175" max="7175" width="12.7265625" style="19" customWidth="1"/>
+    <col min="7176" max="7176" width="4.81640625" style="19" customWidth="1"/>
+    <col min="7177" max="7199" width="9.1796875" style="19"/>
+    <col min="7200" max="7250" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="7251" max="7424" width="9.1796875" style="19"/>
+    <col min="7425" max="7425" width="4.54296875" style="19" customWidth="1"/>
+    <col min="7426" max="7426" width="16.453125" style="19" customWidth="1"/>
+    <col min="7427" max="7427" width="17.26953125" style="19" customWidth="1"/>
+    <col min="7428" max="7428" width="60.54296875" style="19" customWidth="1"/>
+    <col min="7429" max="7430" width="15" style="19" customWidth="1"/>
+    <col min="7431" max="7431" width="12.7265625" style="19" customWidth="1"/>
+    <col min="7432" max="7432" width="4.81640625" style="19" customWidth="1"/>
+    <col min="7433" max="7455" width="9.1796875" style="19"/>
+    <col min="7456" max="7506" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="7507" max="7680" width="9.1796875" style="19"/>
+    <col min="7681" max="7681" width="4.54296875" style="19" customWidth="1"/>
+    <col min="7682" max="7682" width="16.453125" style="19" customWidth="1"/>
+    <col min="7683" max="7683" width="17.26953125" style="19" customWidth="1"/>
+    <col min="7684" max="7684" width="60.54296875" style="19" customWidth="1"/>
+    <col min="7685" max="7686" width="15" style="19" customWidth="1"/>
+    <col min="7687" max="7687" width="12.7265625" style="19" customWidth="1"/>
+    <col min="7688" max="7688" width="4.81640625" style="19" customWidth="1"/>
+    <col min="7689" max="7711" width="9.1796875" style="19"/>
+    <col min="7712" max="7762" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="7763" max="7936" width="9.1796875" style="19"/>
+    <col min="7937" max="7937" width="4.54296875" style="19" customWidth="1"/>
+    <col min="7938" max="7938" width="16.453125" style="19" customWidth="1"/>
+    <col min="7939" max="7939" width="17.26953125" style="19" customWidth="1"/>
+    <col min="7940" max="7940" width="60.54296875" style="19" customWidth="1"/>
+    <col min="7941" max="7942" width="15" style="19" customWidth="1"/>
+    <col min="7943" max="7943" width="12.7265625" style="19" customWidth="1"/>
+    <col min="7944" max="7944" width="4.81640625" style="19" customWidth="1"/>
+    <col min="7945" max="7967" width="9.1796875" style="19"/>
+    <col min="7968" max="8018" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="8019" max="8192" width="9.1796875" style="19"/>
+    <col min="8193" max="8193" width="4.54296875" style="19" customWidth="1"/>
+    <col min="8194" max="8194" width="16.453125" style="19" customWidth="1"/>
+    <col min="8195" max="8195" width="17.26953125" style="19" customWidth="1"/>
+    <col min="8196" max="8196" width="60.54296875" style="19" customWidth="1"/>
+    <col min="8197" max="8198" width="15" style="19" customWidth="1"/>
+    <col min="8199" max="8199" width="12.7265625" style="19" customWidth="1"/>
+    <col min="8200" max="8200" width="4.81640625" style="19" customWidth="1"/>
+    <col min="8201" max="8223" width="9.1796875" style="19"/>
+    <col min="8224" max="8274" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="8275" max="8448" width="9.1796875" style="19"/>
+    <col min="8449" max="8449" width="4.54296875" style="19" customWidth="1"/>
+    <col min="8450" max="8450" width="16.453125" style="19" customWidth="1"/>
+    <col min="8451" max="8451" width="17.26953125" style="19" customWidth="1"/>
+    <col min="8452" max="8452" width="60.54296875" style="19" customWidth="1"/>
+    <col min="8453" max="8454" width="15" style="19" customWidth="1"/>
+    <col min="8455" max="8455" width="12.7265625" style="19" customWidth="1"/>
+    <col min="8456" max="8456" width="4.81640625" style="19" customWidth="1"/>
+    <col min="8457" max="8479" width="9.1796875" style="19"/>
+    <col min="8480" max="8530" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="8531" max="8704" width="9.1796875" style="19"/>
+    <col min="8705" max="8705" width="4.54296875" style="19" customWidth="1"/>
+    <col min="8706" max="8706" width="16.453125" style="19" customWidth="1"/>
+    <col min="8707" max="8707" width="17.26953125" style="19" customWidth="1"/>
+    <col min="8708" max="8708" width="60.54296875" style="19" customWidth="1"/>
+    <col min="8709" max="8710" width="15" style="19" customWidth="1"/>
+    <col min="8711" max="8711" width="12.7265625" style="19" customWidth="1"/>
+    <col min="8712" max="8712" width="4.81640625" style="19" customWidth="1"/>
+    <col min="8713" max="8735" width="9.1796875" style="19"/>
+    <col min="8736" max="8786" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="8787" max="8960" width="9.1796875" style="19"/>
+    <col min="8961" max="8961" width="4.54296875" style="19" customWidth="1"/>
+    <col min="8962" max="8962" width="16.453125" style="19" customWidth="1"/>
+    <col min="8963" max="8963" width="17.26953125" style="19" customWidth="1"/>
+    <col min="8964" max="8964" width="60.54296875" style="19" customWidth="1"/>
+    <col min="8965" max="8966" width="15" style="19" customWidth="1"/>
+    <col min="8967" max="8967" width="12.7265625" style="19" customWidth="1"/>
+    <col min="8968" max="8968" width="4.81640625" style="19" customWidth="1"/>
+    <col min="8969" max="8991" width="9.1796875" style="19"/>
+    <col min="8992" max="9042" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="9043" max="9216" width="9.1796875" style="19"/>
+    <col min="9217" max="9217" width="4.54296875" style="19" customWidth="1"/>
+    <col min="9218" max="9218" width="16.453125" style="19" customWidth="1"/>
+    <col min="9219" max="9219" width="17.26953125" style="19" customWidth="1"/>
+    <col min="9220" max="9220" width="60.54296875" style="19" customWidth="1"/>
+    <col min="9221" max="9222" width="15" style="19" customWidth="1"/>
+    <col min="9223" max="9223" width="12.7265625" style="19" customWidth="1"/>
+    <col min="9224" max="9224" width="4.81640625" style="19" customWidth="1"/>
+    <col min="9225" max="9247" width="9.1796875" style="19"/>
+    <col min="9248" max="9298" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="9299" max="9472" width="9.1796875" style="19"/>
+    <col min="9473" max="9473" width="4.54296875" style="19" customWidth="1"/>
+    <col min="9474" max="9474" width="16.453125" style="19" customWidth="1"/>
+    <col min="9475" max="9475" width="17.26953125" style="19" customWidth="1"/>
+    <col min="9476" max="9476" width="60.54296875" style="19" customWidth="1"/>
+    <col min="9477" max="9478" width="15" style="19" customWidth="1"/>
+    <col min="9479" max="9479" width="12.7265625" style="19" customWidth="1"/>
+    <col min="9480" max="9480" width="4.81640625" style="19" customWidth="1"/>
+    <col min="9481" max="9503" width="9.1796875" style="19"/>
+    <col min="9504" max="9554" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="9555" max="9728" width="9.1796875" style="19"/>
+    <col min="9729" max="9729" width="4.54296875" style="19" customWidth="1"/>
+    <col min="9730" max="9730" width="16.453125" style="19" customWidth="1"/>
+    <col min="9731" max="9731" width="17.26953125" style="19" customWidth="1"/>
+    <col min="9732" max="9732" width="60.54296875" style="19" customWidth="1"/>
+    <col min="9733" max="9734" width="15" style="19" customWidth="1"/>
+    <col min="9735" max="9735" width="12.7265625" style="19" customWidth="1"/>
+    <col min="9736" max="9736" width="4.81640625" style="19" customWidth="1"/>
+    <col min="9737" max="9759" width="9.1796875" style="19"/>
+    <col min="9760" max="9810" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="9811" max="9984" width="9.1796875" style="19"/>
+    <col min="9985" max="9985" width="4.54296875" style="19" customWidth="1"/>
+    <col min="9986" max="9986" width="16.453125" style="19" customWidth="1"/>
+    <col min="9987" max="9987" width="17.26953125" style="19" customWidth="1"/>
+    <col min="9988" max="9988" width="60.54296875" style="19" customWidth="1"/>
+    <col min="9989" max="9990" width="15" style="19" customWidth="1"/>
+    <col min="9991" max="9991" width="12.7265625" style="19" customWidth="1"/>
+    <col min="9992" max="9992" width="4.81640625" style="19" customWidth="1"/>
+    <col min="9993" max="10015" width="9.1796875" style="19"/>
+    <col min="10016" max="10066" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="10067" max="10240" width="9.1796875" style="19"/>
+    <col min="10241" max="10241" width="4.54296875" style="19" customWidth="1"/>
+    <col min="10242" max="10242" width="16.453125" style="19" customWidth="1"/>
+    <col min="10243" max="10243" width="17.26953125" style="19" customWidth="1"/>
+    <col min="10244" max="10244" width="60.54296875" style="19" customWidth="1"/>
+    <col min="10245" max="10246" width="15" style="19" customWidth="1"/>
+    <col min="10247" max="10247" width="12.7265625" style="19" customWidth="1"/>
+    <col min="10248" max="10248" width="4.81640625" style="19" customWidth="1"/>
+    <col min="10249" max="10271" width="9.1796875" style="19"/>
+    <col min="10272" max="10322" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="10323" max="10496" width="9.1796875" style="19"/>
+    <col min="10497" max="10497" width="4.54296875" style="19" customWidth="1"/>
+    <col min="10498" max="10498" width="16.453125" style="19" customWidth="1"/>
+    <col min="10499" max="10499" width="17.26953125" style="19" customWidth="1"/>
+    <col min="10500" max="10500" width="60.54296875" style="19" customWidth="1"/>
+    <col min="10501" max="10502" width="15" style="19" customWidth="1"/>
+    <col min="10503" max="10503" width="12.7265625" style="19" customWidth="1"/>
+    <col min="10504" max="10504" width="4.81640625" style="19" customWidth="1"/>
+    <col min="10505" max="10527" width="9.1796875" style="19"/>
+    <col min="10528" max="10578" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="10579" max="10752" width="9.1796875" style="19"/>
+    <col min="10753" max="10753" width="4.54296875" style="19" customWidth="1"/>
+    <col min="10754" max="10754" width="16.453125" style="19" customWidth="1"/>
+    <col min="10755" max="10755" width="17.26953125" style="19" customWidth="1"/>
+    <col min="10756" max="10756" width="60.54296875" style="19" customWidth="1"/>
+    <col min="10757" max="10758" width="15" style="19" customWidth="1"/>
+    <col min="10759" max="10759" width="12.7265625" style="19" customWidth="1"/>
+    <col min="10760" max="10760" width="4.81640625" style="19" customWidth="1"/>
+    <col min="10761" max="10783" width="9.1796875" style="19"/>
+    <col min="10784" max="10834" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="10835" max="11008" width="9.1796875" style="19"/>
+    <col min="11009" max="11009" width="4.54296875" style="19" customWidth="1"/>
+    <col min="11010" max="11010" width="16.453125" style="19" customWidth="1"/>
+    <col min="11011" max="11011" width="17.26953125" style="19" customWidth="1"/>
+    <col min="11012" max="11012" width="60.54296875" style="19" customWidth="1"/>
+    <col min="11013" max="11014" width="15" style="19" customWidth="1"/>
+    <col min="11015" max="11015" width="12.7265625" style="19" customWidth="1"/>
+    <col min="11016" max="11016" width="4.81640625" style="19" customWidth="1"/>
+    <col min="11017" max="11039" width="9.1796875" style="19"/>
+    <col min="11040" max="11090" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="11091" max="11264" width="9.1796875" style="19"/>
+    <col min="11265" max="11265" width="4.54296875" style="19" customWidth="1"/>
+    <col min="11266" max="11266" width="16.453125" style="19" customWidth="1"/>
+    <col min="11267" max="11267" width="17.26953125" style="19" customWidth="1"/>
+    <col min="11268" max="11268" width="60.54296875" style="19" customWidth="1"/>
+    <col min="11269" max="11270" width="15" style="19" customWidth="1"/>
+    <col min="11271" max="11271" width="12.7265625" style="19" customWidth="1"/>
+    <col min="11272" max="11272" width="4.81640625" style="19" customWidth="1"/>
+    <col min="11273" max="11295" width="9.1796875" style="19"/>
+    <col min="11296" max="11346" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="11347" max="11520" width="9.1796875" style="19"/>
+    <col min="11521" max="11521" width="4.54296875" style="19" customWidth="1"/>
+    <col min="11522" max="11522" width="16.453125" style="19" customWidth="1"/>
+    <col min="11523" max="11523" width="17.26953125" style="19" customWidth="1"/>
+    <col min="11524" max="11524" width="60.54296875" style="19" customWidth="1"/>
+    <col min="11525" max="11526" width="15" style="19" customWidth="1"/>
+    <col min="11527" max="11527" width="12.7265625" style="19" customWidth="1"/>
+    <col min="11528" max="11528" width="4.81640625" style="19" customWidth="1"/>
+    <col min="11529" max="11551" width="9.1796875" style="19"/>
+    <col min="11552" max="11602" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="11603" max="11776" width="9.1796875" style="19"/>
+    <col min="11777" max="11777" width="4.54296875" style="19" customWidth="1"/>
+    <col min="11778" max="11778" width="16.453125" style="19" customWidth="1"/>
+    <col min="11779" max="11779" width="17.26953125" style="19" customWidth="1"/>
+    <col min="11780" max="11780" width="60.54296875" style="19" customWidth="1"/>
+    <col min="11781" max="11782" width="15" style="19" customWidth="1"/>
+    <col min="11783" max="11783" width="12.7265625" style="19" customWidth="1"/>
+    <col min="11784" max="11784" width="4.81640625" style="19" customWidth="1"/>
+    <col min="11785" max="11807" width="9.1796875" style="19"/>
+    <col min="11808" max="11858" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="11859" max="12032" width="9.1796875" style="19"/>
+    <col min="12033" max="12033" width="4.54296875" style="19" customWidth="1"/>
+    <col min="12034" max="12034" width="16.453125" style="19" customWidth="1"/>
+    <col min="12035" max="12035" width="17.26953125" style="19" customWidth="1"/>
+    <col min="12036" max="12036" width="60.54296875" style="19" customWidth="1"/>
+    <col min="12037" max="12038" width="15" style="19" customWidth="1"/>
+    <col min="12039" max="12039" width="12.7265625" style="19" customWidth="1"/>
+    <col min="12040" max="12040" width="4.81640625" style="19" customWidth="1"/>
+    <col min="12041" max="12063" width="9.1796875" style="19"/>
+    <col min="12064" max="12114" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="12115" max="12288" width="9.1796875" style="19"/>
+    <col min="12289" max="12289" width="4.54296875" style="19" customWidth="1"/>
+    <col min="12290" max="12290" width="16.453125" style="19" customWidth="1"/>
+    <col min="12291" max="12291" width="17.26953125" style="19" customWidth="1"/>
+    <col min="12292" max="12292" width="60.54296875" style="19" customWidth="1"/>
+    <col min="12293" max="12294" width="15" style="19" customWidth="1"/>
+    <col min="12295" max="12295" width="12.7265625" style="19" customWidth="1"/>
+    <col min="12296" max="12296" width="4.81640625" style="19" customWidth="1"/>
+    <col min="12297" max="12319" width="9.1796875" style="19"/>
+    <col min="12320" max="12370" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="12371" max="12544" width="9.1796875" style="19"/>
+    <col min="12545" max="12545" width="4.54296875" style="19" customWidth="1"/>
+    <col min="12546" max="12546" width="16.453125" style="19" customWidth="1"/>
+    <col min="12547" max="12547" width="17.26953125" style="19" customWidth="1"/>
+    <col min="12548" max="12548" width="60.54296875" style="19" customWidth="1"/>
+    <col min="12549" max="12550" width="15" style="19" customWidth="1"/>
+    <col min="12551" max="12551" width="12.7265625" style="19" customWidth="1"/>
+    <col min="12552" max="12552" width="4.81640625" style="19" customWidth="1"/>
+    <col min="12553" max="12575" width="9.1796875" style="19"/>
+    <col min="12576" max="12626" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="12627" max="12800" width="9.1796875" style="19"/>
+    <col min="12801" max="12801" width="4.54296875" style="19" customWidth="1"/>
+    <col min="12802" max="12802" width="16.453125" style="19" customWidth="1"/>
+    <col min="12803" max="12803" width="17.26953125" style="19" customWidth="1"/>
+    <col min="12804" max="12804" width="60.54296875" style="19" customWidth="1"/>
+    <col min="12805" max="12806" width="15" style="19" customWidth="1"/>
+    <col min="12807" max="12807" width="12.7265625" style="19" customWidth="1"/>
+    <col min="12808" max="12808" width="4.81640625" style="19" customWidth="1"/>
+    <col min="12809" max="12831" width="9.1796875" style="19"/>
+    <col min="12832" max="12882" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="12883" max="13056" width="9.1796875" style="19"/>
+    <col min="13057" max="13057" width="4.54296875" style="19" customWidth="1"/>
+    <col min="13058" max="13058" width="16.453125" style="19" customWidth="1"/>
+    <col min="13059" max="13059" width="17.26953125" style="19" customWidth="1"/>
+    <col min="13060" max="13060" width="60.54296875" style="19" customWidth="1"/>
+    <col min="13061" max="13062" width="15" style="19" customWidth="1"/>
+    <col min="13063" max="13063" width="12.7265625" style="19" customWidth="1"/>
+    <col min="13064" max="13064" width="4.81640625" style="19" customWidth="1"/>
+    <col min="13065" max="13087" width="9.1796875" style="19"/>
+    <col min="13088" max="13138" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="13139" max="13312" width="9.1796875" style="19"/>
+    <col min="13313" max="13313" width="4.54296875" style="19" customWidth="1"/>
+    <col min="13314" max="13314" width="16.453125" style="19" customWidth="1"/>
+    <col min="13315" max="13315" width="17.26953125" style="19" customWidth="1"/>
+    <col min="13316" max="13316" width="60.54296875" style="19" customWidth="1"/>
+    <col min="13317" max="13318" width="15" style="19" customWidth="1"/>
+    <col min="13319" max="13319" width="12.7265625" style="19" customWidth="1"/>
+    <col min="13320" max="13320" width="4.81640625" style="19" customWidth="1"/>
+    <col min="13321" max="13343" width="9.1796875" style="19"/>
+    <col min="13344" max="13394" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="13395" max="13568" width="9.1796875" style="19"/>
+    <col min="13569" max="13569" width="4.54296875" style="19" customWidth="1"/>
+    <col min="13570" max="13570" width="16.453125" style="19" customWidth="1"/>
+    <col min="13571" max="13571" width="17.26953125" style="19" customWidth="1"/>
+    <col min="13572" max="13572" width="60.54296875" style="19" customWidth="1"/>
+    <col min="13573" max="13574" width="15" style="19" customWidth="1"/>
+    <col min="13575" max="13575" width="12.7265625" style="19" customWidth="1"/>
+    <col min="13576" max="13576" width="4.81640625" style="19" customWidth="1"/>
+    <col min="13577" max="13599" width="9.1796875" style="19"/>
+    <col min="13600" max="13650" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="13651" max="13824" width="9.1796875" style="19"/>
+    <col min="13825" max="13825" width="4.54296875" style="19" customWidth="1"/>
+    <col min="13826" max="13826" width="16.453125" style="19" customWidth="1"/>
+    <col min="13827" max="13827" width="17.26953125" style="19" customWidth="1"/>
+    <col min="13828" max="13828" width="60.54296875" style="19" customWidth="1"/>
+    <col min="13829" max="13830" width="15" style="19" customWidth="1"/>
+    <col min="13831" max="13831" width="12.7265625" style="19" customWidth="1"/>
+    <col min="13832" max="13832" width="4.81640625" style="19" customWidth="1"/>
+    <col min="13833" max="13855" width="9.1796875" style="19"/>
+    <col min="13856" max="13906" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="13907" max="14080" width="9.1796875" style="19"/>
+    <col min="14081" max="14081" width="4.54296875" style="19" customWidth="1"/>
+    <col min="14082" max="14082" width="16.453125" style="19" customWidth="1"/>
+    <col min="14083" max="14083" width="17.26953125" style="19" customWidth="1"/>
+    <col min="14084" max="14084" width="60.54296875" style="19" customWidth="1"/>
+    <col min="14085" max="14086" width="15" style="19" customWidth="1"/>
+    <col min="14087" max="14087" width="12.7265625" style="19" customWidth="1"/>
+    <col min="14088" max="14088" width="4.81640625" style="19" customWidth="1"/>
+    <col min="14089" max="14111" width="9.1796875" style="19"/>
+    <col min="14112" max="14162" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="14163" max="14336" width="9.1796875" style="19"/>
+    <col min="14337" max="14337" width="4.54296875" style="19" customWidth="1"/>
+    <col min="14338" max="14338" width="16.453125" style="19" customWidth="1"/>
+    <col min="14339" max="14339" width="17.26953125" style="19" customWidth="1"/>
+    <col min="14340" max="14340" width="60.54296875" style="19" customWidth="1"/>
+    <col min="14341" max="14342" width="15" style="19" customWidth="1"/>
+    <col min="14343" max="14343" width="12.7265625" style="19" customWidth="1"/>
+    <col min="14344" max="14344" width="4.81640625" style="19" customWidth="1"/>
+    <col min="14345" max="14367" width="9.1796875" style="19"/>
+    <col min="14368" max="14418" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="14419" max="14592" width="9.1796875" style="19"/>
+    <col min="14593" max="14593" width="4.54296875" style="19" customWidth="1"/>
+    <col min="14594" max="14594" width="16.453125" style="19" customWidth="1"/>
+    <col min="14595" max="14595" width="17.26953125" style="19" customWidth="1"/>
+    <col min="14596" max="14596" width="60.54296875" style="19" customWidth="1"/>
+    <col min="14597" max="14598" width="15" style="19" customWidth="1"/>
+    <col min="14599" max="14599" width="12.7265625" style="19" customWidth="1"/>
+    <col min="14600" max="14600" width="4.81640625" style="19" customWidth="1"/>
+    <col min="14601" max="14623" width="9.1796875" style="19"/>
+    <col min="14624" max="14674" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="14675" max="14848" width="9.1796875" style="19"/>
+    <col min="14849" max="14849" width="4.54296875" style="19" customWidth="1"/>
+    <col min="14850" max="14850" width="16.453125" style="19" customWidth="1"/>
+    <col min="14851" max="14851" width="17.26953125" style="19" customWidth="1"/>
+    <col min="14852" max="14852" width="60.54296875" style="19" customWidth="1"/>
+    <col min="14853" max="14854" width="15" style="19" customWidth="1"/>
+    <col min="14855" max="14855" width="12.7265625" style="19" customWidth="1"/>
+    <col min="14856" max="14856" width="4.81640625" style="19" customWidth="1"/>
+    <col min="14857" max="14879" width="9.1796875" style="19"/>
+    <col min="14880" max="14930" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="14931" max="15104" width="9.1796875" style="19"/>
+    <col min="15105" max="15105" width="4.54296875" style="19" customWidth="1"/>
+    <col min="15106" max="15106" width="16.453125" style="19" customWidth="1"/>
+    <col min="15107" max="15107" width="17.26953125" style="19" customWidth="1"/>
+    <col min="15108" max="15108" width="60.54296875" style="19" customWidth="1"/>
+    <col min="15109" max="15110" width="15" style="19" customWidth="1"/>
+    <col min="15111" max="15111" width="12.7265625" style="19" customWidth="1"/>
+    <col min="15112" max="15112" width="4.81640625" style="19" customWidth="1"/>
+    <col min="15113" max="15135" width="9.1796875" style="19"/>
+    <col min="15136" max="15186" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="15187" max="15360" width="9.1796875" style="19"/>
+    <col min="15361" max="15361" width="4.54296875" style="19" customWidth="1"/>
+    <col min="15362" max="15362" width="16.453125" style="19" customWidth="1"/>
+    <col min="15363" max="15363" width="17.26953125" style="19" customWidth="1"/>
+    <col min="15364" max="15364" width="60.54296875" style="19" customWidth="1"/>
+    <col min="15365" max="15366" width="15" style="19" customWidth="1"/>
+    <col min="15367" max="15367" width="12.7265625" style="19" customWidth="1"/>
+    <col min="15368" max="15368" width="4.81640625" style="19" customWidth="1"/>
+    <col min="15369" max="15391" width="9.1796875" style="19"/>
+    <col min="15392" max="15442" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="15443" max="15616" width="9.1796875" style="19"/>
+    <col min="15617" max="15617" width="4.54296875" style="19" customWidth="1"/>
+    <col min="15618" max="15618" width="16.453125" style="19" customWidth="1"/>
+    <col min="15619" max="15619" width="17.26953125" style="19" customWidth="1"/>
+    <col min="15620" max="15620" width="60.54296875" style="19" customWidth="1"/>
+    <col min="15621" max="15622" width="15" style="19" customWidth="1"/>
+    <col min="15623" max="15623" width="12.7265625" style="19" customWidth="1"/>
+    <col min="15624" max="15624" width="4.81640625" style="19" customWidth="1"/>
+    <col min="15625" max="15647" width="9.1796875" style="19"/>
+    <col min="15648" max="15698" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="15699" max="15872" width="9.1796875" style="19"/>
+    <col min="15873" max="15873" width="4.54296875" style="19" customWidth="1"/>
+    <col min="15874" max="15874" width="16.453125" style="19" customWidth="1"/>
+    <col min="15875" max="15875" width="17.26953125" style="19" customWidth="1"/>
+    <col min="15876" max="15876" width="60.54296875" style="19" customWidth="1"/>
+    <col min="15877" max="15878" width="15" style="19" customWidth="1"/>
+    <col min="15879" max="15879" width="12.7265625" style="19" customWidth="1"/>
+    <col min="15880" max="15880" width="4.81640625" style="19" customWidth="1"/>
+    <col min="15881" max="15903" width="9.1796875" style="19"/>
+    <col min="15904" max="15954" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="15955" max="16128" width="9.1796875" style="19"/>
+    <col min="16129" max="16129" width="4.54296875" style="19" customWidth="1"/>
+    <col min="16130" max="16130" width="16.453125" style="19" customWidth="1"/>
+    <col min="16131" max="16131" width="17.26953125" style="19" customWidth="1"/>
+    <col min="16132" max="16132" width="60.54296875" style="19" customWidth="1"/>
+    <col min="16133" max="16134" width="15" style="19" customWidth="1"/>
+    <col min="16135" max="16135" width="12.7265625" style="19" customWidth="1"/>
+    <col min="16136" max="16136" width="4.81640625" style="19" customWidth="1"/>
+    <col min="16137" max="16159" width="9.1796875" style="19"/>
+    <col min="16160" max="16210" width="0" style="19" hidden="1" customWidth="1"/>
+    <col min="16211" max="16384" width="9.1796875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="116.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="143" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="145"/>
+      <c r="A1" s="140"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="142"/>
     </row>
     <row r="2" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="148"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="145"/>
     </row>
     <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="151"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
     </row>
     <row r="4" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="154"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="151"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="155" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="156"/>
-      <c r="D6" s="157" t="s">
+      <c r="C6" s="153"/>
+      <c r="D6" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="24"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="170" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="171"/>
-      <c r="D7" s="162"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="24"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="160" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="161"/>
-      <c r="D8" s="162" t="s">
+      <c r="C8" s="158"/>
+      <c r="D8" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="24"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="160" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="161"/>
-      <c r="D9" s="162" t="s">
+      <c r="C9" s="158"/>
+      <c r="D9" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="24"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="160" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="161"/>
-      <c r="D10" s="162" t="s">
+      <c r="C10" s="158"/>
+      <c r="D10" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="24"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="165" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="166"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="24"/>
-    </row>
-    <row r="28" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="24"/>
-    </row>
-    <row r="29" spans="1:8" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="24"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:8" s="25" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:8" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:8" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:8" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:8" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:8" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:8" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="22"/>
     </row>
     <row r="30" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="24"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="24"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="22"/>
     </row>
     <row r="32" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="24"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="22"/>
     </row>
     <row r="33" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="37" t="s">
+      <c r="A33" s="20"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="24"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="22"/>
     </row>
     <row r="34" spans="1:32" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="22"/>
-      <c r="B34" s="38" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="40" t="s">
+      <c r="G34" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="24"/>
-      <c r="AF34" s="21">
+      <c r="H34" s="22"/>
+      <c r="AF34" s="19">
         <v>5.5</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="41"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="43"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4163,7 +4092,7 @@
     <mergeCell ref="D6:G6"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="100" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="100" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4175,252 +4104,252 @@
   </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D13"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="46"/>
-    <col min="2" max="2" width="48" style="46" customWidth="1"/>
-    <col min="3" max="3" width="38.7265625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="15.7265625" style="46" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="46"/>
+    <col min="1" max="1" width="9.1796875" style="44"/>
+    <col min="2" max="2" width="48" style="44" customWidth="1"/>
+    <col min="3" max="3" width="38.7265625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="44" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="187"/>
-    </row>
-    <row r="2" spans="1:4" s="54" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="199" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="184"/>
+    </row>
+    <row r="2" spans="1:4" s="52" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="201"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="198"/>
     </row>
     <row r="3" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="193" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="198"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="195"/>
     </row>
     <row r="4" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="175"/>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="177"/>
-    </row>
-    <row r="5" spans="1:4" s="54" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="57" t="s">
+      <c r="A4" s="172"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="174"/>
+    </row>
+    <row r="5" spans="1:4" s="52" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="51" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="44">
+      <c r="A6" s="42">
         <v>1</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="48" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="44">
+      <c r="A7" s="42">
         <v>2</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="48" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="44">
+      <c r="A8" s="42">
         <v>3</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="48" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="44">
+      <c r="A9" s="42">
         <v>4</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="48" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="47"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
     </row>
     <row r="11" spans="1:4" ht="82.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="188" t="s">
+      <c r="A11" s="185" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="189"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="190"/>
+      <c r="B11" s="186"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="187"/>
     </row>
     <row r="12" spans="1:4" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="188"/>
-      <c r="B12" s="189"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="190"/>
-    </row>
-    <row r="13" spans="1:4" s="54" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="193" t="s">
+      <c r="A12" s="185"/>
+      <c r="B12" s="186"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="187"/>
+    </row>
+    <row r="13" spans="1:4" s="52" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="190" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="194"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="195"/>
+      <c r="B13" s="191"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="192"/>
     </row>
     <row r="14" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="191" t="s">
+      <c r="A14" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="192"/>
-      <c r="C14" s="192"/>
-      <c r="D14" s="184"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="181"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="175"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="177"/>
-    </row>
-    <row r="16" spans="1:4" s="54" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="58" t="s">
+      <c r="A15" s="172"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="174"/>
+    </row>
+    <row r="16" spans="1:4" s="52" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="54" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="47">
+      <c r="A17" s="45">
         <v>1</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="181" t="s">
+      <c r="C17" s="178" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="184" t="s">
+      <c r="D17" s="181" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="47">
+      <c r="A18" s="45">
         <v>2</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="182"/>
-      <c r="D18" s="184"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="181"/>
     </row>
     <row r="19" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="47">
+      <c r="A19" s="45">
         <v>3</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="181" t="s">
+      <c r="C19" s="178" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="184" t="s">
+      <c r="D19" s="181" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="47">
+      <c r="A20" s="45">
         <v>4</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="184"/>
+      <c r="C20" s="180"/>
+      <c r="D20" s="181"/>
     </row>
     <row r="21" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="47">
+      <c r="A21" s="45">
         <v>5</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="182"/>
-      <c r="D21" s="184"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="181"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="175"/>
-      <c r="B22" s="176"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="177"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="173"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="174"/>
     </row>
     <row r="23" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="172" t="s">
+      <c r="A23" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="173"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="174"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="171"/>
     </row>
     <row r="24" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="178"/>
-      <c r="B24" s="179"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="180"/>
+      <c r="A24" s="175"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4458,8 +4387,8 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4471,493 +4400,493 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="220" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="225"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="222"/>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="138"/>
-      <c r="B2" s="63" t="s">
+      <c r="A2" s="135"/>
+      <c r="B2" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="139" t="s">
+      <c r="D2" s="136" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.35">
-      <c r="A3" s="140">
+      <c r="A3" s="137">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="141"/>
-    </row>
-    <row r="4" spans="1:4" s="62" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A4" s="140">
+      <c r="C3" s="15"/>
+      <c r="D3" s="138"/>
+    </row>
+    <row r="4" spans="1:4" s="60" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A4" s="137">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="141"/>
-    </row>
-    <row r="5" spans="1:4" s="62" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A5" s="140">
+      <c r="C4" s="15"/>
+      <c r="D4" s="138"/>
+    </row>
+    <row r="5" spans="1:4" s="60" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A5" s="137">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="141"/>
-    </row>
-    <row r="6" spans="1:4" s="62" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A6" s="140">
+      <c r="C5" s="15"/>
+      <c r="D5" s="138"/>
+    </row>
+    <row r="6" spans="1:4" s="60" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A6" s="137">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="141"/>
-    </row>
-    <row r="7" spans="1:4" s="62" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A7" s="140">
+      <c r="C6" s="15"/>
+      <c r="D6" s="138"/>
+    </row>
+    <row r="7" spans="1:4" s="60" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A7" s="137">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="141"/>
-    </row>
-    <row r="8" spans="1:4" s="62" customFormat="1" ht="26" x14ac:dyDescent="0.35">
-      <c r="A8" s="140">
+      <c r="C7" s="15"/>
+      <c r="D7" s="138"/>
+    </row>
+    <row r="8" spans="1:4" s="60" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+      <c r="A8" s="137">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="141"/>
-    </row>
-    <row r="9" spans="1:4" s="62" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A9" s="140">
+      <c r="C8" s="15"/>
+      <c r="D8" s="138"/>
+    </row>
+    <row r="9" spans="1:4" s="60" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A9" s="137">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="141"/>
-    </row>
-    <row r="10" spans="1:4" s="62" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A10" s="140">
+      <c r="C9" s="15"/>
+      <c r="D9" s="138"/>
+    </row>
+    <row r="10" spans="1:4" s="60" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A10" s="137">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="141"/>
-    </row>
-    <row r="11" spans="1:4" s="62" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A11" s="217" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="138"/>
+    </row>
+    <row r="11" spans="1:4" s="60" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A11" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="218"/>
-      <c r="C11" s="218"/>
-      <c r="D11" s="219"/>
-    </row>
-    <row r="12" spans="1:4" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="217" t="s">
+      <c r="B11" s="215"/>
+      <c r="C11" s="215"/>
+      <c r="D11" s="216"/>
+    </row>
+    <row r="12" spans="1:4" s="60" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="218"/>
-      <c r="C12" s="218"/>
-      <c r="D12" s="219"/>
+      <c r="B12" s="215"/>
+      <c r="C12" s="215"/>
+      <c r="D12" s="216"/>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="140">
+      <c r="A13" s="137">
         <v>1</v>
       </c>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="204"/>
-      <c r="D13" s="205"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="202"/>
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="140">
+      <c r="A14" s="137">
         <f>A13+1</f>
         <v>2</v>
       </c>
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="202"/>
-      <c r="D14" s="203"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="200"/>
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="140">
+      <c r="A15" s="137">
         <f t="shared" ref="A15:A20" si="0">A14+1</f>
         <v>3</v>
       </c>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="202"/>
-      <c r="D15" s="203"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="200"/>
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="140">
+      <c r="A16" s="137">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="202"/>
-      <c r="D16" s="203"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="200"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="140">
+      <c r="A17" s="137">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B17" s="137" t="s">
+      <c r="B17" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="202"/>
-      <c r="D17" s="203"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="200"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="140">
+      <c r="A18" s="137">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B18" s="137" t="s">
+      <c r="B18" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="202"/>
-      <c r="D18" s="203"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="200"/>
     </row>
     <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="140">
+      <c r="A19" s="137">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="202"/>
-      <c r="D19" s="203"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="200"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="140">
+      <c r="A20" s="137">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B20" s="137" t="s">
+      <c r="B20" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="202"/>
-      <c r="D20" s="203"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="200"/>
     </row>
     <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="220" t="s">
+      <c r="A21" s="217" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="221"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="222"/>
-    </row>
-    <row r="22" spans="1:6" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="140"/>
-      <c r="B22" s="210"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="211"/>
+      <c r="B21" s="218"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="219"/>
+    </row>
+    <row r="22" spans="1:6" s="60" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="137"/>
+      <c r="B22" s="207"/>
+      <c r="C22" s="207"/>
+      <c r="D22" s="208"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="140"/>
-      <c r="B23" s="210"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="211"/>
+    <row r="23" spans="1:6" s="60" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="137"/>
+      <c r="B23" s="207"/>
+      <c r="C23" s="207"/>
+      <c r="D23" s="208"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="140"/>
-      <c r="B24" s="210"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="211"/>
+    <row r="24" spans="1:6" s="60" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="137"/>
+      <c r="B24" s="207"/>
+      <c r="C24" s="207"/>
+      <c r="D24" s="208"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="140"/>
-      <c r="B25" s="212"/>
-      <c r="C25" s="213"/>
-      <c r="D25" s="214"/>
+    <row r="25" spans="1:6" s="60" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="137"/>
+      <c r="B25" s="209"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="211"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="140"/>
-      <c r="B26" s="212"/>
-      <c r="C26" s="213"/>
-      <c r="D26" s="214"/>
+    <row r="26" spans="1:6" s="60" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="137"/>
+      <c r="B26" s="209"/>
+      <c r="C26" s="210"/>
+      <c r="D26" s="211"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="140"/>
-      <c r="B27" s="210"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="211"/>
+    <row r="27" spans="1:6" s="60" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="137"/>
+      <c r="B27" s="207"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="208"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="140"/>
-      <c r="B28" s="212"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="214"/>
+    <row r="28" spans="1:6" s="60" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="137"/>
+      <c r="B28" s="209"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="211"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="140"/>
-      <c r="B29" s="212"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="214"/>
+    <row r="29" spans="1:6" s="60" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="137"/>
+      <c r="B29" s="209"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="211"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="140"/>
-      <c r="B30" s="210"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="211"/>
+    <row r="30" spans="1:6" s="60" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="137"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="207"/>
+      <c r="D30" s="208"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" s="62" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="140"/>
-      <c r="B31" s="212"/>
-      <c r="C31" s="213"/>
-      <c r="D31" s="214"/>
+    <row r="31" spans="1:6" s="60" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="137"/>
+      <c r="B31" s="209"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="211"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="217" t="s">
+      <c r="A32" s="214" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="218"/>
-      <c r="C32" s="218"/>
-      <c r="D32" s="219"/>
+      <c r="B32" s="215"/>
+      <c r="C32" s="215"/>
+      <c r="D32" s="216"/>
     </row>
     <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="140">
+      <c r="A33" s="137">
         <v>1</v>
       </c>
-      <c r="B33" s="215" t="s">
+      <c r="B33" s="212" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="215"/>
-      <c r="D33" s="216"/>
+      <c r="C33" s="212"/>
+      <c r="D33" s="213"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="140">
+      <c r="A34" s="137">
         <v>2</v>
       </c>
-      <c r="B34" s="215" t="s">
+      <c r="B34" s="212" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="215"/>
-      <c r="D34" s="216"/>
+      <c r="C34" s="212"/>
+      <c r="D34" s="213"/>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="140">
+      <c r="A35" s="137">
         <v>3</v>
       </c>
-      <c r="B35" s="215" t="s">
+      <c r="B35" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="215"/>
-      <c r="D35" s="216"/>
+      <c r="C35" s="212"/>
+      <c r="D35" s="213"/>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="140">
+      <c r="A36" s="137">
         <v>4</v>
       </c>
-      <c r="B36" s="215" t="s">
+      <c r="B36" s="212" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="215"/>
-      <c r="D36" s="216"/>
+      <c r="C36" s="212"/>
+      <c r="D36" s="213"/>
     </row>
     <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="140">
+      <c r="A37" s="137">
         <v>5</v>
       </c>
-      <c r="B37" s="215" t="s">
+      <c r="B37" s="212" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="215"/>
-      <c r="D37" s="216"/>
+      <c r="C37" s="212"/>
+      <c r="D37" s="213"/>
     </row>
     <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="140">
+      <c r="A38" s="137">
         <v>6</v>
       </c>
-      <c r="B38" s="215" t="s">
+      <c r="B38" s="212" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="215"/>
-      <c r="D38" s="216"/>
+      <c r="C38" s="212"/>
+      <c r="D38" s="213"/>
     </row>
     <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="140">
+      <c r="A39" s="137">
         <v>7</v>
       </c>
-      <c r="B39" s="215" t="s">
+      <c r="B39" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="215"/>
-      <c r="D39" s="216"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="213"/>
     </row>
     <row r="40" spans="1:4" ht="13" x14ac:dyDescent="0.35">
-      <c r="A40" s="140">
+      <c r="A40" s="137">
         <v>8</v>
       </c>
-      <c r="B40" s="215" t="s">
+      <c r="B40" s="212" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="215"/>
-      <c r="D40" s="216"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="213"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="140">
+      <c r="A41" s="137">
         <v>9</v>
       </c>
-      <c r="B41" s="192" t="s">
+      <c r="B41" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="192"/>
-      <c r="D41" s="209"/>
+      <c r="C41" s="189"/>
+      <c r="D41" s="206"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="140">
+      <c r="A42" s="137">
         <v>10</v>
       </c>
-      <c r="B42" s="192" t="s">
+      <c r="B42" s="189" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="192"/>
-      <c r="D42" s="209"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="206"/>
     </row>
     <row r="43" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="140">
+      <c r="A43" s="137">
         <v>11</v>
       </c>
-      <c r="B43" s="192" t="s">
+      <c r="B43" s="189" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="192"/>
-      <c r="D43" s="209"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="206"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="140">
+      <c r="A44" s="137">
         <v>12</v>
       </c>
-      <c r="B44" s="192" t="s">
+      <c r="B44" s="189" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="192"/>
-      <c r="D44" s="209"/>
+      <c r="C44" s="189"/>
+      <c r="D44" s="206"/>
     </row>
     <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="140">
+      <c r="A45" s="137">
         <v>13</v>
       </c>
-      <c r="B45" s="192" t="s">
+      <c r="B45" s="189" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="192"/>
-      <c r="D45" s="209"/>
+      <c r="C45" s="189"/>
+      <c r="D45" s="206"/>
     </row>
     <row r="46" spans="1:4" ht="13" x14ac:dyDescent="0.35">
-      <c r="A46" s="140">
+      <c r="A46" s="137">
         <v>14</v>
       </c>
-      <c r="B46" s="192" t="s">
+      <c r="B46" s="189" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="192"/>
-      <c r="D46" s="209"/>
+      <c r="C46" s="189"/>
+      <c r="D46" s="206"/>
     </row>
     <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="140">
+      <c r="A47" s="137">
         <v>15</v>
       </c>
-      <c r="B47" s="192" t="s">
+      <c r="B47" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="192"/>
-      <c r="D47" s="209"/>
+      <c r="C47" s="189"/>
+      <c r="D47" s="206"/>
     </row>
     <row r="48" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="140">
+      <c r="A48" s="137">
         <v>16</v>
       </c>
-      <c r="B48" s="192" t="s">
+      <c r="B48" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="192"/>
-      <c r="D48" s="209"/>
+      <c r="C48" s="189"/>
+      <c r="D48" s="206"/>
     </row>
     <row r="49" spans="1:4" ht="13" x14ac:dyDescent="0.35">
-      <c r="A49" s="140">
+      <c r="A49" s="137">
         <v>17</v>
       </c>
-      <c r="B49" s="210" t="s">
+      <c r="B49" s="207" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="210"/>
-      <c r="D49" s="211"/>
+      <c r="C49" s="207"/>
+      <c r="D49" s="208"/>
     </row>
     <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="140">
+      <c r="A50" s="137">
         <v>18</v>
       </c>
-      <c r="B50" s="204" t="s">
+      <c r="B50" s="201" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="204"/>
-      <c r="D50" s="205"/>
+      <c r="C50" s="201"/>
+      <c r="D50" s="202"/>
     </row>
     <row r="51" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="142">
+      <c r="A51" s="139">
         <v>19</v>
       </c>
-      <c r="B51" s="206" t="s">
+      <c r="B51" s="203" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="207"/>
-      <c r="D51" s="208"/>
+      <c r="C51" s="204"/>
+      <c r="D51" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -5019,40 +4948,40 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.7265625" style="5" customWidth="1"/>
     <col min="2" max="2" width="15.7265625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.7265625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="50.6328125" style="5" customWidth="1"/>
     <col min="4" max="4" width="7.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="5" customWidth="1"/>
     <col min="7" max="7" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6328125" style="5" customWidth="1"/>
     <col min="9" max="9" width="12.81640625" style="5" customWidth="1"/>
     <col min="10" max="10" width="15.7265625" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="223" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="228"/>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="225"/>
     </row>
     <row r="2" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -5086,7 +5015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -5096,177 +5025,25 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J16" s="62"/>
-    </row>
-    <row r="17" spans="3:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="J17" s="62"/>
+      <c r="J3" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:J17 A1:A17">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+  <conditionalFormatting sqref="A1:A3 C3:J3">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:J2">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="9" fitToHeight="100" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;12Classification: &amp;KFF0000Project Confidential&amp;8&amp;K000000
 </oddHeader>
@@ -5279,17 +5056,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.7265625" style="5" customWidth="1"/>
     <col min="2" max="2" width="15.7265625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="50.6328125" style="5" customWidth="1"/>
     <col min="4" max="4" width="7.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7265625" style="5" customWidth="1"/>
     <col min="6" max="6" width="9.1796875" style="5" bestFit="1" customWidth="1"/>
@@ -5297,29 +5074,29 @@
     <col min="8" max="9" width="10.7265625" style="5" customWidth="1"/>
     <col min="10" max="10" width="12.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6328125" style="5" customWidth="1"/>
     <col min="13" max="13" width="13.7265625" style="5" customWidth="1"/>
     <col min="14" max="14" width="15.7265625" style="5" customWidth="1"/>
     <col min="15" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="70" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="229" t="s">
+    <row r="1" spans="1:14" s="67" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="226" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="231"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="227"/>
+      <c r="L1" s="227"/>
+      <c r="M1" s="227"/>
+      <c r="N1" s="228"/>
     </row>
     <row r="2" spans="1:14" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
@@ -5365,7 +5142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -5379,274 +5156,29 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="14"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="16"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="16"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="16"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="16"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="16"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="16"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="16"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="16"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="16"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="16"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="16"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="16"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="11"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="16"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="16"/>
-    </row>
-    <row r="18" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="15"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="N19" s="62"/>
+      <c r="N4" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A1:A19">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+  <conditionalFormatting sqref="A1:A4 C3:N4">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:N2">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:N19">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="9" scale="83" fitToHeight="100" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;12Classification: &amp;KFF0000Project Confidential&amp;8&amp;K000000
 </oddHeader>
@@ -5656,73 +5188,76 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.453125" style="67" customWidth="1"/>
-    <col min="2" max="2" width="12" style="67" customWidth="1"/>
-    <col min="3" max="3" width="31.26953125" style="67" customWidth="1"/>
-    <col min="4" max="4" width="36.7265625" style="67" customWidth="1"/>
-    <col min="5" max="6" width="13.453125" style="67" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" style="67" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" style="67" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" style="67" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" style="67" customWidth="1"/>
-    <col min="11" max="11" width="15.453125" style="67" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.54296875" style="67" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.26953125" style="67" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" style="67" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1796875" style="67" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" style="67" customWidth="1"/>
-    <col min="17" max="17" width="23.453125" style="67" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.1796875" style="67" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27" style="67" customWidth="1"/>
-    <col min="20" max="20" width="11" style="67" customWidth="1"/>
-    <col min="21" max="21" width="6.453125" style="67" customWidth="1"/>
-    <col min="22" max="22" width="49.1796875" style="67" customWidth="1"/>
-    <col min="23" max="23" width="12.26953125" style="67" customWidth="1"/>
-    <col min="24" max="16384" width="9.1796875" style="67"/>
+    <col min="1" max="1" width="7.453125" style="65" customWidth="1"/>
+    <col min="2" max="2" width="12" style="65" customWidth="1"/>
+    <col min="3" max="3" width="31.26953125" style="65" customWidth="1"/>
+    <col min="4" max="4" width="36.7265625" style="65" customWidth="1"/>
+    <col min="5" max="6" width="13.453125" style="65" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" style="65" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" style="65" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="65" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" style="65" customWidth="1"/>
+    <col min="11" max="11" width="15.453125" style="65" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" style="65" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="6.26953125" style="65" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" style="65" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1796875" style="65" customWidth="1"/>
+    <col min="16" max="16" width="15.453125" style="65" customWidth="1"/>
+    <col min="17" max="17" width="23.453125" style="65" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.1796875" style="65" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27" style="65" customWidth="1"/>
+    <col min="20" max="20" width="11" style="65" customWidth="1"/>
+    <col min="21" max="21" width="6.453125" style="65" customWidth="1"/>
+    <col min="22" max="22" width="49.1796875" style="65" customWidth="1"/>
+    <col min="23" max="23" width="12.26953125" style="65" customWidth="1"/>
+    <col min="24" max="16384" width="9.1796875" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="234" t="s">
+      <c r="A1" s="231" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="235"/>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="235"/>
-      <c r="G1" s="235"/>
-      <c r="H1" s="235"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="237" t="s">
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="234" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
-      <c r="N1" s="239"/>
-      <c r="O1" s="242"/>
-      <c r="P1" s="243" t="s">
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="239"/>
+      <c r="P1" s="240" t="s">
         <v>126</v>
       </c>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="244"/>
-      <c r="S1" s="244"/>
-      <c r="T1" s="245"/>
-      <c r="V1" s="115" t="s">
+      <c r="Q1" s="241"/>
+      <c r="R1" s="241"/>
+      <c r="S1" s="241"/>
+      <c r="T1" s="242"/>
+      <c r="V1" s="112" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="68" t="s">
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5752,7 +5287,7 @@
       <c r="J2" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="69" t="s">
         <v>136</v>
       </c>
       <c r="L2" s="10" t="s">
@@ -5761,10 +5296,10 @@
       <c r="M2" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="N2" s="73" t="s">
+      <c r="N2" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="O2" s="242"/>
+      <c r="O2" s="239"/>
       <c r="P2" s="2" t="s">
         <v>140</v>
       </c>
@@ -5780,87 +5315,87 @@
       <c r="T2" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="V2" s="116" t="s">
+      <c r="V2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="107"/>
+      <c r="W2" s="104"/>
     </row>
     <row r="3" spans="1:23" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74">
+      <c r="A3" s="71">
         <v>1</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="76" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="77" t="s">
+      <c r="C3" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="74" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="78" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" s="78" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" s="78" t="s">
-        <v>144</v>
-      </c>
-      <c r="H3" s="78" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="78" t="s">
-        <v>144</v>
-      </c>
-      <c r="J3" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="K3" s="80" t="s">
+      <c r="E3" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" s="76" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="81" t="s">
+      <c r="L3" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="M3" s="81" t="s">
+      <c r="M3" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="N3" s="82" t="s">
+      <c r="N3" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="O3" s="242"/>
-      <c r="P3" s="83" t="s">
+      <c r="O3" s="239"/>
+      <c r="P3" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="Q3" s="117" t="s">
+      <c r="Q3" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="R3" s="117" t="s">
+      <c r="R3" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="S3" s="118" t="s">
+      <c r="S3" s="115" t="s">
         <v>152</v>
       </c>
-      <c r="T3" s="119"/>
-      <c r="V3" s="84" t="s">
+      <c r="T3" s="116"/>
+      <c r="V3" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="W3" s="233" t="s">
+      <c r="W3" s="230" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="74">
+      <c r="A4" s="71">
         <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="83" t="s">
         <v>145</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -5878,52 +5413,52 @@
       <c r="I4" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="J4" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="K4" s="80" t="s">
+      <c r="J4" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="L4" s="81" t="s">
+      <c r="L4" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="O4" s="242"/>
-      <c r="P4" s="87" t="s">
+      <c r="O4" s="239"/>
+      <c r="P4" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="T4" s="120"/>
-      <c r="V4" s="88" t="s">
+      <c r="T4" s="117"/>
+      <c r="V4" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="W4" s="233"/>
+      <c r="W4" s="230"/>
     </row>
     <row r="5" spans="1:23" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="74">
+      <c r="A5" s="71">
         <f t="shared" ref="A5:A18" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="83" t="s">
         <v>145</v>
       </c>
       <c r="E5" s="10" t="s">
@@ -5941,42 +5476,42 @@
       <c r="I5" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="J5" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="K5" s="80"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="242"/>
-      <c r="P5" s="87" t="s">
+      <c r="J5" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" s="77"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="239"/>
+      <c r="P5" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19" t="s">
+      <c r="R5" s="17"/>
+      <c r="S5" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="T5" s="120"/>
-      <c r="V5" s="88" t="s">
+      <c r="T5" s="117"/>
+      <c r="V5" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="W5" s="233"/>
+      <c r="W5" s="230"/>
     </row>
     <row r="6" spans="1:23" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="74">
+      <c r="A6" s="71">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="85" t="s">
+      <c r="C6" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="83" t="s">
         <v>145</v>
       </c>
       <c r="E6" s="10" t="s">
@@ -5985,7 +5520,7 @@
       <c r="F6" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="86" t="s">
         <v>166</v>
       </c>
       <c r="H6" s="10" t="s">
@@ -5994,44 +5529,44 @@
       <c r="I6" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="J6" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="242"/>
-      <c r="P6" s="87" t="s">
+      <c r="J6" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="77"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="239"/>
+      <c r="P6" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="T6" s="120"/>
-      <c r="V6" s="88" t="s">
+      <c r="T6" s="117"/>
+      <c r="V6" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="W6" s="233"/>
+      <c r="W6" s="230"/>
     </row>
     <row r="7" spans="1:23" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="74">
+      <c r="A7" s="71">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="83" t="s">
         <v>145</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -6040,7 +5575,7 @@
       <c r="F7" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="86" t="s">
         <v>166</v>
       </c>
       <c r="H7" s="10" t="s">
@@ -6049,44 +5584,44 @@
       <c r="I7" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="J7" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="K7" s="80"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="242"/>
-      <c r="P7" s="87" t="s">
+      <c r="J7" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="77"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="239"/>
+      <c r="P7" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="S7" s="19" t="s">
+      <c r="S7" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="T7" s="120"/>
-      <c r="V7" s="88" t="s">
+      <c r="T7" s="117"/>
+      <c r="V7" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="W7" s="233"/>
+      <c r="W7" s="230"/>
     </row>
     <row r="8" spans="1:23" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="74">
+      <c r="A8" s="71">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="83" t="s">
         <v>145</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -6098,48 +5633,48 @@
       <c r="G8" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="89" t="s">
+      <c r="H8" s="86" t="s">
         <v>166</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="80"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="242"/>
-      <c r="P8" s="87" t="s">
+      <c r="J8" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="77"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="239"/>
+      <c r="P8" s="84" t="s">
         <v>173</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19" t="s">
+      <c r="R8" s="17"/>
+      <c r="S8" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="T8" s="120"/>
-      <c r="V8" s="88" t="s">
+      <c r="T8" s="117"/>
+      <c r="V8" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="W8" s="233"/>
+      <c r="W8" s="230"/>
     </row>
     <row r="9" spans="1:23" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="74">
+      <c r="A9" s="71">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="83" t="s">
         <v>145</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -6151,48 +5686,48 @@
       <c r="G9" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H9" s="89" t="s">
+      <c r="H9" s="86" t="s">
         <v>166</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="J9" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="K9" s="80"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="242"/>
-      <c r="P9" s="87" t="s">
+      <c r="J9" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="239"/>
+      <c r="P9" s="84" t="s">
         <v>173</v>
       </c>
-      <c r="Q9" s="19" t="s">
+      <c r="Q9" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19" t="s">
+      <c r="R9" s="17"/>
+      <c r="S9" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="T9" s="120"/>
-      <c r="V9" s="88" t="s">
+      <c r="T9" s="117"/>
+      <c r="V9" s="85" t="s">
         <v>177</v>
       </c>
-      <c r="W9" s="233"/>
+      <c r="W9" s="230"/>
     </row>
     <row r="10" spans="1:23" ht="116.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="74">
+      <c r="A10" s="71">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="82" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="83" t="s">
         <v>145</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -6201,59 +5736,59 @@
       <c r="F10" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="89" t="s">
+      <c r="G10" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="H10" s="89" t="s">
+      <c r="H10" s="86" t="s">
         <v>166</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="J10" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="K10" s="80"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="242"/>
-      <c r="P10" s="87" t="s">
+      <c r="J10" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="239"/>
+      <c r="P10" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="Q10" s="19" t="s">
+      <c r="Q10" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="R10" s="19" t="s">
+      <c r="R10" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="S10" s="19" t="s">
+      <c r="S10" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="T10" s="120"/>
-      <c r="V10" s="88" t="s">
+      <c r="T10" s="117"/>
+      <c r="V10" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="W10" s="233"/>
+      <c r="W10" s="230"/>
     </row>
     <row r="11" spans="1:23" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="74">
+      <c r="A11" s="71">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="89" t="s">
+      <c r="E11" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="89" t="s">
+      <c r="F11" s="86" t="s">
         <v>166</v>
       </c>
       <c r="G11" s="10" t="s">
@@ -6265,61 +5800,61 @@
       <c r="I11" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="J11" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="90" t="s">
+      <c r="J11" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="L11" s="91" t="s">
+      <c r="L11" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="M11" s="91" t="s">
+      <c r="M11" s="88" t="s">
         <v>183</v>
       </c>
-      <c r="N11" s="92" t="s">
+      <c r="N11" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="O11" s="242"/>
-      <c r="P11" s="87" t="s">
+      <c r="O11" s="239"/>
+      <c r="P11" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="Q11" s="19" t="s">
+      <c r="Q11" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="R11" s="19" t="s">
+      <c r="R11" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="S11" s="19" t="s">
+      <c r="S11" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="T11" s="120"/>
-      <c r="V11" s="88" t="s">
+      <c r="T11" s="117"/>
+      <c r="V11" s="85" t="s">
         <v>185</v>
       </c>
-      <c r="W11" s="233"/>
+      <c r="W11" s="230"/>
     </row>
     <row r="12" spans="1:23" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="74">
+      <c r="A12" s="71">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="89" t="s">
+      <c r="E12" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="89" t="s">
+      <c r="F12" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="G12" s="89" t="s">
+      <c r="G12" s="86" t="s">
         <v>166</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -6328,52 +5863,52 @@
       <c r="I12" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="K12" s="90" t="s">
+      <c r="J12" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="L12" s="91" t="s">
+      <c r="L12" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="M12" s="91" t="s">
+      <c r="M12" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="N12" s="92" t="s">
+      <c r="N12" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="O12" s="242"/>
-      <c r="P12" s="87" t="s">
+      <c r="O12" s="239"/>
+      <c r="P12" s="84" t="s">
         <v>179</v>
       </c>
-      <c r="Q12" s="19" t="s">
+      <c r="Q12" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="R12" s="19" t="s">
+      <c r="R12" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="S12" s="17" t="s">
+      <c r="S12" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="T12" s="120"/>
-      <c r="V12" s="88" t="s">
+      <c r="T12" s="117"/>
+      <c r="V12" s="85" t="s">
         <v>190</v>
       </c>
-      <c r="W12" s="233"/>
+      <c r="W12" s="230"/>
     </row>
     <row r="13" spans="1:23" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="74">
+      <c r="A13" s="71">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="83" t="s">
         <v>145</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -6385,337 +5920,337 @@
       <c r="G13" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H13" s="89" t="s">
+      <c r="H13" s="86" t="s">
         <v>166</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="J13" s="93" t="s">
+      <c r="J13" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="O13" s="242"/>
-      <c r="P13" s="87" t="s">
+      <c r="O13" s="239"/>
+      <c r="P13" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="Q13" s="17" t="s">
+      <c r="Q13" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="R13" s="19"/>
-      <c r="S13" s="17" t="s">
+      <c r="R13" s="17"/>
+      <c r="S13" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="T13" s="120"/>
-      <c r="V13" s="88" t="s">
+      <c r="T13" s="117"/>
+      <c r="V13" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="W13" s="233"/>
+      <c r="W13" s="230"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="74">
+      <c r="A14" s="71">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="I14" s="94" t="s">
+      <c r="E14" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="J14" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O14" s="242"/>
-      <c r="P14" s="87" t="s">
+      <c r="J14" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" s="239"/>
+      <c r="P14" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="Q14" s="17" t="s">
+      <c r="Q14" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17" t="s">
+      <c r="R14" s="15"/>
+      <c r="S14" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="T14" s="18"/>
-      <c r="V14" s="88" t="s">
+      <c r="T14" s="16"/>
+      <c r="V14" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="W14" s="233"/>
+      <c r="W14" s="230"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="74">
+      <c r="A15" s="71">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="J15" s="95" t="s">
+      <c r="E15" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="O15" s="242"/>
-      <c r="P15" s="87" t="s">
+      <c r="O15" s="239"/>
+      <c r="P15" s="84" t="s">
         <v>173</v>
       </c>
-      <c r="Q15" s="17" t="s">
+      <c r="Q15" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17" t="s">
+      <c r="R15" s="15"/>
+      <c r="S15" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="T15" s="18"/>
-      <c r="V15" s="88" t="s">
+      <c r="T15" s="16"/>
+      <c r="V15" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="W15" s="233"/>
+      <c r="W15" s="230"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="74">
+      <c r="A16" s="71">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="94" t="s">
+      <c r="E16" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="I16" s="94" t="s">
+      <c r="I16" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O16" s="242"/>
-      <c r="P16" s="87" t="s">
+      <c r="J16" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" s="239"/>
+      <c r="P16" s="84" t="s">
         <v>173</v>
       </c>
-      <c r="Q16" s="17" t="s">
+      <c r="Q16" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17" t="s">
+      <c r="R16" s="15"/>
+      <c r="S16" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="T16" s="18"/>
-      <c r="V16" s="88" t="s">
+      <c r="T16" s="16"/>
+      <c r="V16" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="W16" s="233"/>
+      <c r="W16" s="230"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="74">
+      <c r="A17" s="71">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="94" t="s">
+      <c r="E17" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="J17" s="95" t="s">
+      <c r="J17" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="O17" s="242"/>
-      <c r="P17" s="87" t="s">
+      <c r="O17" s="239"/>
+      <c r="P17" s="84" t="s">
         <v>173</v>
       </c>
-      <c r="Q17" s="17" t="s">
+      <c r="Q17" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17" t="s">
+      <c r="R17" s="15"/>
+      <c r="S17" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="T17" s="18"/>
-      <c r="V17" s="88" t="s">
+      <c r="T17" s="16"/>
+      <c r="V17" s="85" t="s">
         <v>203</v>
       </c>
-      <c r="W17" s="233"/>
-    </row>
-    <row r="18" spans="1:23" s="101" customFormat="1" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="74">
+      <c r="W17" s="230"/>
+    </row>
+    <row r="18" spans="1:23" s="98" customFormat="1" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="71">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="96" t="s">
+      <c r="C18" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="99" t="s">
+      <c r="E18" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="I18" s="99" t="s">
+      <c r="I18" s="96" t="s">
         <v>166</v>
       </c>
-      <c r="J18" s="100" t="s">
+      <c r="J18" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="O18" s="242"/>
-      <c r="P18" s="102" t="s">
+      <c r="O18" s="239"/>
+      <c r="P18" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="Q18" s="103" t="s">
+      <c r="Q18" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="R18" s="121"/>
-      <c r="S18" s="103" t="s">
+      <c r="R18" s="118"/>
+      <c r="S18" s="100" t="s">
         <v>204</v>
       </c>
-      <c r="T18" s="122"/>
-      <c r="V18" s="104" t="s">
+      <c r="T18" s="119"/>
+      <c r="V18" s="101" t="s">
         <v>205</v>
       </c>
-      <c r="W18" s="233"/>
-    </row>
-    <row r="19" spans="1:23" s="126" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="75">
+      <c r="W18" s="230"/>
+    </row>
+    <row r="19" spans="1:23" s="123" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="72">
         <f>A18+1</f>
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="105" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="105" t="s">
+      <c r="C19" s="102" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="102" t="s">
         <v>207</v>
       </c>
-      <c r="E19" s="106" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="106" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="106" t="s">
-        <v>144</v>
-      </c>
-      <c r="H19" s="106" t="s">
-        <v>144</v>
-      </c>
-      <c r="I19" s="106" t="s">
-        <v>144</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="K19" s="107" t="s">
+      <c r="E19" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K19" s="104" t="s">
         <v>146</v>
       </c>
-      <c r="L19" s="59" t="s">
+      <c r="L19" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="M19" s="59" t="s">
+      <c r="M19" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="N19" s="108" t="s">
+      <c r="N19" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="O19" s="242"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="64" t="s">
+      <c r="O19" s="239"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="S19" s="124" t="s">
+      <c r="S19" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="T19" s="125"/>
-      <c r="V19" s="127"/>
-      <c r="W19" s="240" t="s">
+      <c r="T19" s="122"/>
+      <c r="V19" s="124"/>
+      <c r="W19" s="237" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="126" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" s="123" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <f t="shared" ref="A20:A31" si="1">A19+1</f>
         <v>18</v>
@@ -6723,56 +6258,56 @@
       <c r="B20" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="I20" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="K20" s="107" t="s">
+      <c r="E20" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="104" t="s">
         <v>155</v>
       </c>
-      <c r="L20" s="59" t="s">
+      <c r="L20" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="M20" s="59" t="s">
+      <c r="M20" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="N20" s="108" t="s">
+      <c r="N20" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="O20" s="242"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="128"/>
-      <c r="R20" s="19" t="s">
+      <c r="O20" s="239"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="S20" s="19" t="s">
+      <c r="S20" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="T20" s="129"/>
-      <c r="V20" s="130"/>
-      <c r="W20" s="240"/>
-    </row>
-    <row r="21" spans="1:23" s="126" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T20" s="126"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="237"/>
+    </row>
+    <row r="21" spans="1:23" s="123" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -6780,42 +6315,42 @@
       <c r="B21" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="E21" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="F21" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H21" s="61" t="s">
+      <c r="E21" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="H21" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="I21" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O21" s="242"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="128"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="19" t="s">
+      <c r="I21" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O21" s="239"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
+      <c r="S21" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="T21" s="129"/>
-      <c r="V21" s="130"/>
-      <c r="W21" s="240"/>
-    </row>
-    <row r="22" spans="1:23" s="126" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T21" s="126"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="237"/>
+    </row>
+    <row r="22" spans="1:23" s="123" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -6823,42 +6358,42 @@
       <c r="B22" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="E22" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="F22" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H22" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="I22" s="61" t="s">
+      <c r="E22" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="J22" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O22" s="242"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="128"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="17" t="s">
+      <c r="J22" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O22" s="239"/>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="125"/>
+      <c r="S22" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="T22" s="129"/>
-      <c r="V22" s="130"/>
-      <c r="W22" s="240"/>
-    </row>
-    <row r="23" spans="1:23" s="126" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T22" s="126"/>
+      <c r="V22" s="127"/>
+      <c r="W22" s="237"/>
+    </row>
+    <row r="23" spans="1:23" s="123" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -6866,42 +6401,42 @@
       <c r="B23" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="D23" s="60" t="s">
+      <c r="D23" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="E23" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H23" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="I23" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="J23" s="16" t="s">
+      <c r="E23" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="O23" s="242"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="128"/>
-      <c r="R23" s="128"/>
-      <c r="S23" s="17" t="s">
+      <c r="O23" s="239"/>
+      <c r="P23" s="128"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="T23" s="129"/>
-      <c r="V23" s="130"/>
-      <c r="W23" s="240"/>
-    </row>
-    <row r="24" spans="1:23" s="126" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T23" s="126"/>
+      <c r="V23" s="127"/>
+      <c r="W23" s="237"/>
+    </row>
+    <row r="24" spans="1:23" s="123" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -6909,42 +6444,42 @@
       <c r="B24" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="E24" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="F24" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24" s="61" t="s">
+      <c r="E24" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="G24" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="I24" s="61" t="s">
+      <c r="I24" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="J24" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O24" s="242"/>
-      <c r="P24" s="131"/>
-      <c r="Q24" s="128"/>
-      <c r="R24" s="128"/>
-      <c r="S24" s="17" t="s">
+      <c r="J24" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O24" s="239"/>
+      <c r="P24" s="128"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="125"/>
+      <c r="S24" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="T24" s="129"/>
-      <c r="V24" s="130"/>
-      <c r="W24" s="240"/>
-    </row>
-    <row r="25" spans="1:23" s="126" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T24" s="126"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="237"/>
+    </row>
+    <row r="25" spans="1:23" s="123" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -6952,42 +6487,42 @@
       <c r="B25" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="D25" s="60" t="s">
+      <c r="D25" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="E25" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="I25" s="61" t="s">
+      <c r="E25" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="O25" s="242"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="128"/>
-      <c r="R25" s="128"/>
-      <c r="S25" s="17" t="s">
+      <c r="O25" s="239"/>
+      <c r="P25" s="128"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="125"/>
+      <c r="S25" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="T25" s="129"/>
-      <c r="V25" s="130"/>
-      <c r="W25" s="240"/>
-    </row>
-    <row r="26" spans="1:23" s="126" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T25" s="126"/>
+      <c r="V25" s="127"/>
+      <c r="W25" s="237"/>
+    </row>
+    <row r="26" spans="1:23" s="123" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -6995,40 +6530,40 @@
       <c r="B26" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="58" t="s">
         <v>207</v>
       </c>
-      <c r="E26" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G26" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" s="61" t="s">
+      <c r="E26" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="I26" s="61" t="s">
+      <c r="I26" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="O26" s="242"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="128"/>
-      <c r="R26" s="128"/>
-      <c r="S26" s="17" t="s">
+      <c r="O26" s="239"/>
+      <c r="P26" s="128"/>
+      <c r="Q26" s="125"/>
+      <c r="R26" s="125"/>
+      <c r="S26" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="T26" s="129"/>
-      <c r="V26" s="130"/>
-      <c r="W26" s="240"/>
+      <c r="T26" s="126"/>
+      <c r="V26" s="127"/>
+      <c r="W26" s="237"/>
     </row>
     <row r="27" spans="1:23" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
@@ -7038,10 +6573,10 @@
       <c r="B27" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="58" t="s">
         <v>207</v>
       </c>
       <c r="E27" s="10" t="s">
@@ -7059,33 +6594,33 @@
       <c r="I27" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="J27" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="K27" s="107" t="s">
+      <c r="J27" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="K27" s="104" t="s">
         <v>181</v>
       </c>
-      <c r="L27" s="59" t="s">
+      <c r="L27" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="M27" s="59" t="s">
+      <c r="M27" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="N27" s="108" t="s">
+      <c r="N27" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="O27" s="242"/>
-      <c r="P27" s="131"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19" t="s">
+      <c r="O27" s="239"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="S27" s="19" t="s">
+      <c r="S27" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="T27" s="120"/>
-      <c r="V27" s="88"/>
-      <c r="W27" s="240"/>
+      <c r="T27" s="117"/>
+      <c r="V27" s="85"/>
+      <c r="W27" s="237"/>
     </row>
     <row r="28" spans="1:23" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
@@ -7095,10 +6630,10 @@
       <c r="B28" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="58" t="s">
         <v>207</v>
       </c>
       <c r="E28" s="10" t="s">
@@ -7116,33 +6651,33 @@
       <c r="I28" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="J28" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="K28" s="107" t="s">
+      <c r="J28" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="104" t="s">
         <v>219</v>
       </c>
-      <c r="L28" s="59" t="s">
+      <c r="L28" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="M28" s="59" t="s">
+      <c r="M28" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="N28" s="108" t="s">
+      <c r="N28" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="O28" s="242"/>
-      <c r="P28" s="131"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19" t="s">
+      <c r="O28" s="239"/>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="S28" s="19" t="s">
+      <c r="S28" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="T28" s="120"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="240"/>
+      <c r="T28" s="117"/>
+      <c r="V28" s="85"/>
+      <c r="W28" s="237"/>
     </row>
     <row r="29" spans="1:23" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
@@ -7152,10 +6687,10 @@
       <c r="B29" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="58" t="s">
         <v>207</v>
       </c>
       <c r="E29" s="10" t="s">
@@ -7173,33 +6708,33 @@
       <c r="I29" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="J29" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="K29" s="107" t="s">
+      <c r="J29" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="L29" s="59" t="s">
+      <c r="L29" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="M29" s="59" t="s">
+      <c r="M29" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="N29" s="108" t="s">
+      <c r="N29" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="O29" s="242"/>
-      <c r="P29" s="131"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19" t="s">
+      <c r="O29" s="239"/>
+      <c r="P29" s="128"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="S29" s="17" t="s">
+      <c r="S29" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="T29" s="120"/>
-      <c r="V29" s="88"/>
-      <c r="W29" s="240"/>
+      <c r="T29" s="117"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="237"/>
     </row>
     <row r="30" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
@@ -7209,10 +6744,10 @@
       <c r="B30" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="58" t="s">
         <v>226</v>
       </c>
       <c r="E30" s="10" t="s">
@@ -7230,31 +6765,31 @@
       <c r="I30" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="J30" s="73" t="s">
-        <v>144</v>
-      </c>
-      <c r="K30" s="107" t="s">
+      <c r="J30" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="K30" s="104" t="s">
         <v>227</v>
       </c>
-      <c r="L30" s="59" t="s">
+      <c r="L30" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="M30" s="59" t="s">
+      <c r="M30" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="N30" s="108" t="s">
+      <c r="N30" s="105" t="s">
         <v>230</v>
       </c>
-      <c r="O30" s="242"/>
-      <c r="P30" s="131"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19" t="s">
+      <c r="O30" s="239"/>
+      <c r="P30" s="128"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="S30" s="19"/>
-      <c r="T30" s="120"/>
-      <c r="V30" s="88"/>
-      <c r="W30" s="240"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="117"/>
+      <c r="V30" s="85"/>
+      <c r="W30" s="237"/>
     </row>
     <row r="31" spans="1:23" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8">
@@ -7264,10 +6799,10 @@
       <c r="B31" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C31" s="110" t="s">
+      <c r="C31" s="107" t="s">
         <v>232</v>
       </c>
-      <c r="D31" s="111" t="s">
+      <c r="D31" s="108" t="s">
         <v>233</v>
       </c>
       <c r="E31" s="9" t="s">
@@ -7285,79 +6820,79 @@
       <c r="I31" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="J31" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="K31" s="113" t="s">
+      <c r="J31" s="109" t="s">
+        <v>144</v>
+      </c>
+      <c r="K31" s="110" t="s">
         <v>234</v>
       </c>
-      <c r="L31" s="110" t="s">
+      <c r="L31" s="107" t="s">
         <v>235</v>
       </c>
-      <c r="M31" s="110" t="s">
+      <c r="M31" s="107" t="s">
         <v>236</v>
       </c>
-      <c r="N31" s="114" t="s">
+      <c r="N31" s="111" t="s">
         <v>237</v>
       </c>
-      <c r="O31" s="242"/>
-      <c r="P31" s="132"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66" t="s">
+      <c r="O31" s="239"/>
+      <c r="P31" s="129"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="S31" s="66"/>
-      <c r="T31" s="133"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="241"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="130"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="238"/>
     </row>
     <row r="32" spans="1:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="134"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="126"/>
-      <c r="N32" s="126"/>
-      <c r="O32" s="242"/>
+      <c r="A32" s="131"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="239"/>
     </row>
     <row r="33" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="135" t="s">
+      <c r="A33" s="132" t="s">
         <v>238</v>
       </c>
-      <c r="B33" s="136"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="126"/>
-      <c r="N33" s="126"/>
-      <c r="O33" s="242"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="239"/>
     </row>
     <row r="34" spans="1:15" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="65">
+      <c r="A34" s="63">
         <v>1</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="66"/>
-      <c r="D34" s="232"/>
-      <c r="E34" s="232"/>
-      <c r="F34" s="232"/>
-      <c r="G34" s="232"/>
-      <c r="H34" s="232"/>
-      <c r="I34" s="232"/>
-      <c r="J34" s="232"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="126"/>
-      <c r="N34" s="126"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="229"/>
+      <c r="E34" s="229"/>
+      <c r="F34" s="229"/>
+      <c r="G34" s="229"/>
+      <c r="H34" s="229"/>
+      <c r="I34" s="229"/>
+      <c r="J34" s="229"/>
+      <c r="L34" s="123"/>
+      <c r="M34" s="123"/>
+      <c r="N34" s="123"/>
     </row>
     <row r="35" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7371,19 +6906,31 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup paperSize="8" scale="50" orientation="landscape" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.51181102362204722" bottom="0.23622047244094491" header="0.23622047244094491" footer="0.23622047244094491"/>
+  <pageSetup paperSize="8" scale="59" fitToHeight="100" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;12Classification: &amp;KFF0000Project Confidential&amp;8&amp;K000000
 </oddHeader>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="18" max="16383" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<titus xmlns="http://schemas.titus.com/TitusProperties/">
+  <TitusGUID xmlns="">53397d79-576c-48c4-b059-d134621a6087</TitusGUID>
+  <TitusMetadata xmlns="">eyJucyI6Imh0dHA6XC9cL3d3dy50aXR1cy5jb21cL25zXC9UVExUSVRVUyIsInByb3BzIjpbeyJuIjoiQ2xhc3NpZmljYXRpb24iLCJ2YWxzIjpbeyJ2YWx1ZSI6IlByb2plY3QgQ29uZmlkZW50aWFsIn1dfV19</TitusMetadata>
+</titus>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c558f27f-977b-4104-9e14-d5235b3acb2e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4A424670D509F4DB58E22FC558421AA" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="400b2776d46effa43f4be06260b8f506">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f37e3795-f493-4d42-a277-f8cf990027db" xmlns:ns4="c558f27f-977b-4104-9e14-d5235b3acb2e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a10b7bf8bbb2a9d9091c1ed473b21d8" ns3:_="" ns4:_="">
     <xsd:import namespace="f37e3795-f493-4d42-a277-f8cf990027db"/>
@@ -7636,7 +7183,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7645,22 +7192,26 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<titus xmlns="http://schemas.titus.com/TitusProperties/">
-  <TitusGUID xmlns="">53397d79-576c-48c4-b059-d134621a6087</TitusGUID>
-  <TitusMetadata xmlns="">eyJucyI6Imh0dHA6XC9cL3d3dy50aXR1cy5jb21cL25zXC9UVExUSVRVUyIsInByb3BzIjpbeyJuIjoiQ2xhc3NpZmljYXRpb24iLCJ2YWxzIjpbeyJ2YWx1ZSI6IlByb2plY3QgQ29uZmlkZW50aWFsIn1dfV19</TitusMetadata>
-</titus>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2F66709-829C-4A6B-AB7D-7C8064D940BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.titus.com/TitusProperties/"/>
+    <ds:schemaRef ds:uri=""/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c558f27f-977b-4104-9e14-d5235b3acb2e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{780FB7FD-37B9-4A67-A516-B81D76ABF57B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c558f27f-977b-4104-9e14-d5235b3acb2e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B34FA757-D0E4-4AEC-9793-DCC465646D22}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7679,29 +7230,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E7440B-72D0-451D-A093-320217205853}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2F66709-829C-4A6B-AB7D-7C8064D940BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.titus.com/TitusProperties/"/>
-    <ds:schemaRef ds:uri=""/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{780FB7FD-37B9-4A67-A516-B81D76ABF57B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c558f27f-977b-4104-9e14-d5235b3acb2e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>